--- a/Easel Architects.xlsx
+++ b/Easel Architects.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="ia1dwrD8rNORZZ318xw3zp4BFUBRNVuCZ2krUKDLe08="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="uVgETkgGy4sTZpeh4Kx6BYKoO4SjweDuDhn+nS41Ius="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Product Name</t>
   </si>
@@ -130,38 +130,6 @@
   </si>
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>Check Spelling and any mistake</t>
-  </si>
-  <si>
-    <t>Show Task Mangement System Button</t>
-  </si>
-  <si>
-    <t>Not Found as per expectation</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">1. Goto Url
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
-      </rPr>
-      <t>https://www.easelarchitects.com/</t>
-    </r>
   </si>
   <si>
     <t>Header</t>
@@ -297,18 +265,18 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <u/>
       <sz val="12.0"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,12 +357,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
@@ -618,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="96">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -745,11 +707,17 @@
     <xf borderId="13" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -758,46 +726,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="14" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -823,7 +752,7 @@
     <xf borderId="16" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -832,25 +761,25 @@
     <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="15" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="15" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="20" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -865,7 +794,7 @@
     <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="11" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -874,37 +803,37 @@
     <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="15" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="15" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="14" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="15" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="15" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="15" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -931,13 +860,13 @@
     <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="15" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="15" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="15" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1215,8 +1144,8 @@
         <v>7</v>
       </c>
       <c r="L2" s="10">
-        <f>COUNTIF(K8:K143,"Passed")</f>
-        <v>3</v>
+        <f>COUNTIF(K8:K141,"Passed")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="27.0" customHeight="1">
@@ -1237,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="L3" s="10">
-        <f>COUNTIF(K8:K143,"Failed")</f>
+        <f>COUNTIF(K8:K141,"Failed")</f>
         <v>0</v>
       </c>
     </row>
@@ -1246,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="10">
-        <f>COUNTIF(K8:K143,"Not Executed")</f>
+        <f>COUNTIF(K8:K141,"Not Executed")</f>
         <v>0</v>
       </c>
     </row>
@@ -1255,7 +1184,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="18">
-        <f>COUNTIF(K8:K143,"Out of Scope")</f>
+        <f>COUNTIF(K8:K141,"Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
@@ -1265,7 +1194,7 @@
       </c>
       <c r="L6" s="20">
         <f>SUM(L2:L5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
@@ -1350,88 +1279,80 @@
       <c r="K9" s="38"/>
       <c r="L9" s="39"/>
     </row>
-    <row r="10" ht="33.75" customHeight="1">
-      <c r="A10" s="41"/>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="41">
+        <f>sum(1+1)</f>
+        <v>2</v>
+      </c>
       <c r="B10" s="42"/>
       <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44" t="s">
+      <c r="D10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="E10" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="F10" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="G10" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="H10" s="46"/>
+      <c r="I10" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47" t="s">
-        <v>34</v>
-      </c>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
       <c r="L10" s="48"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="53"/>
+      <c r="A11" s="41">
+        <f t="shared" ref="A11:A18" si="1">sum(A10+1)</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="41">
-        <f>sum(1+1)</f>
-        <v>2</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="59" t="s">
-        <v>44</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="48"/>
-      <c r="K12" s="47" t="s">
-        <v>34</v>
-      </c>
+      <c r="K12" s="48"/>
       <c r="L12" s="48"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="41">
-        <f t="shared" ref="A13:A20" si="1">sum(A12+1)</f>
-        <v>3</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
       <c r="L13" s="48"/>
@@ -1439,16 +1360,16 @@
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="41">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
@@ -1456,16 +1377,16 @@
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="41">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
       <c r="L15" s="48"/>
@@ -1473,422 +1394,390 @@
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="41">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="41">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="41">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="62">
+      <c r="A17" s="51">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+    </row>
+    <row r="18" ht="72.75" customHeight="1">
+      <c r="A18" s="55">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="63"/>
       <c r="F19" s="63"/>
       <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-    </row>
-    <row r="20" ht="72.75" customHeight="1">
-      <c r="A20" s="66">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="70"/>
+      <c r="L19" s="66"/>
+    </row>
+    <row r="20" ht="13.5" customHeight="1">
+      <c r="A20" s="55">
+        <v>11.0</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="59"/>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="77"/>
+      <c r="A21" s="55">
+        <f t="shared" ref="A21:A28" si="2">sum(A20+1)</f>
+        <v>12</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="59"/>
     </row>
     <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="66">
-        <v>11.0</v>
-      </c>
-      <c r="B22" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="70"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="66">
-        <f t="shared" ref="A23:A30" si="2">sum(A22+1)</f>
-        <v>12</v>
-      </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="70"/>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="66">
+      <c r="A22" s="55">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="70"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="66">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="59"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1">
+      <c r="A23" s="55">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="70"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="66">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="59"/>
+    </row>
+    <row r="24" ht="13.5" customHeight="1">
+      <c r="A24" s="55">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="70"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="66">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59"/>
+    </row>
+    <row r="25" ht="13.5" customHeight="1">
+      <c r="A25" s="55">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="70"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="66">
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="59"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1">
+      <c r="A26" s="55">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="70"/>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="66">
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1">
+      <c r="A27" s="55">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="70"/>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="66">
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+    </row>
+    <row r="28" ht="13.5" customHeight="1">
+      <c r="A28" s="55">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
-    </row>
-    <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="71"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="91"/>
-    </row>
-    <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="66">
+      <c r="B28" s="49"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="59"/>
+    </row>
+    <row r="29" ht="13.5" customHeight="1">
+      <c r="A29" s="60"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="80"/>
+    </row>
+    <row r="30" ht="13.5" customHeight="1">
+      <c r="A30" s="55">
         <f>sum(19+1)</f>
         <v>20</v>
       </c>
-      <c r="B32" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="70"/>
-    </row>
-    <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="66">
-        <f t="shared" ref="A33:A35" si="3">sum(A32+1)</f>
+      <c r="B30" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="59"/>
+    </row>
+    <row r="31" ht="13.5" customHeight="1">
+      <c r="A31" s="55">
+        <f t="shared" ref="A31:A33" si="3">sum(A30+1)</f>
         <v>21</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="70"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="66">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+    </row>
+    <row r="32" ht="13.5" customHeight="1">
+      <c r="A32" s="55">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
-    </row>
-    <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="66">
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
+    </row>
+    <row r="33" ht="13.5" customHeight="1">
+      <c r="A33" s="55">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+    </row>
+    <row r="34" ht="13.5" customHeight="1">
+      <c r="A34" s="81"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="84"/>
+    </row>
+    <row r="35" ht="13.5" customHeight="1">
+      <c r="A35" s="85">
+        <f>sum(23+1)</f>
+        <v>24</v>
+      </c>
       <c r="B35" s="86"/>
       <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="70"/>
+      <c r="D35" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="90"/>
     </row>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="92"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="95"/>
+      <c r="A36" s="85">
+        <f>sum(A35+1)</f>
+        <v>25</v>
+      </c>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="90"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="96">
-        <f>sum(23+1)</f>
-        <v>24</v>
-      </c>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="101"/>
+      <c r="A37" s="88"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="90"/>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="96">
-        <f>sum(A37+1)</f>
-        <v>25</v>
-      </c>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="101"/>
-    </row>
-    <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="99"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="101"/>
-    </row>
-    <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="104"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="106"/>
-    </row>
+      <c r="A38" s="93"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="95"/>
+    </row>
+    <row r="39" ht="13.5" customHeight="1"/>
+    <row r="40" ht="13.5" customHeight="1"/>
     <row r="41" ht="13.5" customHeight="1"/>
     <row r="42" ht="13.5" customHeight="1"/>
     <row r="43" ht="13.5" customHeight="1"/>
@@ -2820,29 +2709,27 @@
     <row r="969" ht="13.5" customHeight="1"/>
     <row r="970" ht="13.5" customHeight="1"/>
     <row r="971" ht="13.5" customHeight="1"/>
-    <row r="972" ht="13.5" customHeight="1"/>
-    <row r="973" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="C22:C30"/>
-    <mergeCell ref="D22:D30"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="B35:B37"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="K8 K10 K12:K20 K22:K30 K32:K35 K37:K39">
+    <dataValidation type="list" allowBlank="1" sqref="K8 K10:K18 K20:K28 K30:K33 K35:K37">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2851,12 +2738,11 @@
     <hyperlink r:id="rId2" ref="C3"/>
     <hyperlink r:id="rId3" ref="E3"/>
     <hyperlink r:id="rId4" ref="I10"/>
-    <hyperlink r:id="rId5" ref="I12"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Easel Architects.xlsx
+++ b/Easel Architects.xlsx
@@ -4,20 +4,21 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="TestCase" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="TestScenarios" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Report" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="uVgETkgGy4sTZpeh4Kx6BYKoO4SjweDuDhn+nS41Ius="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="3tJpH+sLmUxokPW+XAJ5gS7952Jk2zkL0YG4p3bzaOU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="170">
   <si>
     <t>Product Name</t>
   </si>
@@ -135,13 +136,16 @@
     <t>Header</t>
   </si>
   <si>
-    <t>Verify the same Header used on whole website pages.</t>
+    <t>Checking  same Header used on whole website pages.</t>
   </si>
   <si>
     <t>Should be same Header whole website</t>
   </si>
   <si>
     <t>Found as per expection</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <r>
@@ -150,7 +154,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">1. Goto Url
-2. </t>
+</t>
     </r>
     <r>
       <rPr>
@@ -163,13 +167,654 @@
     </r>
   </si>
   <si>
-    <t>Admin/System</t>
+    <t>Click Icon "Easel architects &amp;engineers"</t>
+  </si>
+  <si>
+    <t>Should be go to Home page</t>
+  </si>
+  <si>
+    <t>1. Goto Url
+https://www.easelarchitects.com/
+2. Click Icon</t>
+  </si>
+  <si>
+    <t>Click "HOME"</t>
+  </si>
+  <si>
+    <t>1. Goto Url
+https://www.easelarchitects.com/
+2.  Click "HOME"</t>
+  </si>
+  <si>
+    <t>Click "ABOUT US"</t>
+  </si>
+  <si>
+    <t>Should be go to About us page</t>
+  </si>
+  <si>
+    <t>1. Goto Url
+https://www.easelarchitects.com/
+2.. Click "ABOUT US"</t>
+  </si>
+  <si>
+    <t>Click "PORTFOLO"</t>
+  </si>
+  <si>
+    <t>Should be go to Portfolio page</t>
+  </si>
+  <si>
+    <t>1. Goto Url
+https://www.easelarchitects.com/
+2. . Click "PORTTFOLO"</t>
+  </si>
+  <si>
+    <t>Click "SERVICES"</t>
+  </si>
+  <si>
+    <t>Should be go to Services Page</t>
+  </si>
+  <si>
+    <t>1. Goto Url
+https://www.easelarchitects.com/
+2. Click "SERVICES"</t>
+  </si>
+  <si>
+    <t>Click "CLIENTS"</t>
+  </si>
+  <si>
+    <t>Should be go to Clients page</t>
+  </si>
+  <si>
+    <t>1. Goto Url
+https://www.easelarchitects.com/
+2. Click "CLIENTS"</t>
+  </si>
+  <si>
+    <t>Click "CONTACT"</t>
+  </si>
+  <si>
+    <t>Should be go to Contract page</t>
+  </si>
+  <si>
+    <t>1. Goto Url
+https://www.easelarchitects.com/
+2. Click "CONTACT"</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Checking the same Footer used on whole website pages except Portfolo page.</t>
+  </si>
+  <si>
+    <t>Should be same  Footer whole website except Portfolo page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto Url </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://www.easelarchitects.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking the logo shown at the footer.</t>
+  </si>
+  <si>
+    <t>Should be logo in footer section</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto Url </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://www.easelarchitects.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking no spelling mistakes for the text on the footer section.</t>
+  </si>
+  <si>
+    <t>No spelling or grammatical mistakes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto Url </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://www.easelarchitects.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Click "To Top"</t>
+  </si>
+  <si>
+    <t>Start by going to the top</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto Url </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://www.easelarchitects.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>Sideber</t>
   </si>
   <si>
-    <t>User/Employee</t>
+    <t>Checking no spelling mistakes for the text on the Sideber section.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto Url </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://www.easelarchitects.com/</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking all page same sideber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be same sideber </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto Url </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://www.easelarchitects.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>All social links with icons added on the</t>
+  </si>
+  <si>
+    <t>Should be added and work all social media link</t>
+  </si>
+  <si>
+    <t>Not found as per expection</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto Url </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://www.easelarchitects.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>social link</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Chceking sideber show wich page open</t>
+  </si>
+  <si>
+    <t>Should be show</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto Url </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://www.easelarchitects.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Checking no spelling mistakes for the text on the Home Page.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto Url
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.easelarchitects.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking all button work</t>
+  </si>
+  <si>
+    <t>Should be work</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto Url
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.easelarchitects.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking  button colour same as per design</t>
+  </si>
+  <si>
+    <t>Should be same button colour home page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto Url
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.easelarchitects.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking width and height for the button</t>
+  </si>
+  <si>
+    <t>Should be same size  all button</t>
+  </si>
+  <si>
+    <t>Not found as per expectation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto Url
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.easelarchitects.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking  colour changed on the mouse hover or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be change </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto Url
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.easelarchitects.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>ABOUT US</t>
+  </si>
+  <si>
+    <t>Checking no spelling mistakes for the text on the About us page.</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">1. Goto Url </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.easelarchitects.com/about</t>
+    </r>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Startech.bd.com</t>
+  </si>
+  <si>
+    <t>Reference Document</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Creation Date</t>
+  </si>
+  <si>
+    <t>Approval Date</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reference</t>
+  </si>
+  <si>
+    <t>Test Scenario Description</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Number of Test Cases</t>
+  </si>
+  <si>
+    <t>TS_001</t>
+  </si>
+  <si>
+    <t>Validate the URL in different browsers.</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>TS_002</t>
+  </si>
+  <si>
+    <t>Validate the Header</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>TS_003</t>
+  </si>
+  <si>
+    <t>Validate the Footer</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>TS_004</t>
+  </si>
+  <si>
+    <t>Validate the Sideber</t>
+  </si>
+  <si>
+    <t>TS_005</t>
+  </si>
+  <si>
+    <t>Validate Home Page.</t>
+  </si>
+  <si>
+    <t>TS_010</t>
+  </si>
+  <si>
+    <t>Validate the working of "Search Bar" functionality.</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>TS_012</t>
+  </si>
+  <si>
+    <t>Validate the working of "Gadget Fest" functionality.</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>TS_013</t>
+  </si>
+  <si>
+    <t>Validate the working of  "Get offer" functionality.</t>
+  </si>
+  <si>
+    <t>TS_014</t>
+  </si>
+  <si>
+    <t>Validate the working of  "OTP" functionality.</t>
+  </si>
+  <si>
+    <t>TS_015</t>
+  </si>
+  <si>
+    <t>Validate the working of "Forgotten Password?" functionality.</t>
+  </si>
+  <si>
+    <t>TS_016</t>
+  </si>
+  <si>
+    <t>Validate the working of "Mobile Deal" functionality.</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>TS_017</t>
+  </si>
+  <si>
+    <t>Validate the working of  "PC Builder" functionality.</t>
+  </si>
+  <si>
+    <t>TS_018</t>
+  </si>
+  <si>
+    <t>Validate the working of  "accessories"functionality.</t>
+  </si>
+  <si>
+    <t>TS_019</t>
+  </si>
+  <si>
+    <t>Validate the working of  "office-equipment" functionality.</t>
+  </si>
+  <si>
+    <t>TS_020</t>
+  </si>
+  <si>
+    <t>Validate the working of  "SUPPORT"functionality.</t>
+  </si>
+  <si>
+    <t>Test Case Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Project Name   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module Name   </t>
+  </si>
+  <si>
+    <t>Website Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total No. </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Test Case Version</t>
+  </si>
+  <si>
+    <t>Written By</t>
+  </si>
+  <si>
+    <t>Executed By</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>TEST EXECUTION REPORT</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Out Of Scope</t>
+  </si>
+  <si>
+    <t>Total TC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Total  </t>
   </si>
 </sst>
 </file>
@@ -179,7 +824,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="36">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -275,8 +920,104 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0563C1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Comfortaa"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,8 +1102,92 @@
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F5496"/>
+        <bgColor rgb="FF2F5496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DBDB"/>
+        <bgColor rgb="FFF2DBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6DDE8"/>
+        <bgColor rgb="FFB6DDE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F2"/>
+        <bgColor rgb="FFDCE6F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor rgb="FF99FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC1DA"/>
+        <bgColor rgb="FFCCC1DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B9B8"/>
+        <bgColor rgb="FFE6B9B8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border/>
     <border>
       <left style="thin">
@@ -529,6 +1354,11 @@
       </bottom>
     </border>
     <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -542,7 +1372,21 @@
       </right>
     </border>
     <border>
-      <right style="medium">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
     </border>
@@ -550,9 +1394,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -564,23 +1405,55 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="164">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -701,173 +1574,377 @@
     <xf borderId="14" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="14" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="17" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="20" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="14" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="26" fillId="15" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="26" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="25" fillId="15" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="25" fillId="15" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="15" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="15" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="15" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="16" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="16" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="17" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="18" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="19" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="18" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="19" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="20" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="27" fillId="20" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="19" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="21" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="22" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="22" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="23" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="20" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="24" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="25" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="10" fillId="26" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="14" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="10" fillId="27" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="28" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="28" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="28" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="28" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,6 +1959,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1100,7 +2181,7 @@
     <col customWidth="1" min="6" max="6" width="25.43"/>
     <col customWidth="1" min="7" max="7" width="30.86"/>
     <col customWidth="1" min="8" max="8" width="31.29"/>
-    <col customWidth="1" min="9" max="9" width="25.14"/>
+    <col customWidth="1" min="9" max="9" width="34.86"/>
     <col customWidth="1" min="10" max="10" width="15.14"/>
     <col customWidth="1" min="11" max="11" width="15.57"/>
     <col customWidth="1" min="12" max="12" width="14.71"/>
@@ -1144,8 +2225,8 @@
         <v>7</v>
       </c>
       <c r="L2" s="10">
-        <f>COUNTIF(K8:K141,"Passed")</f>
-        <v>1</v>
+        <f>COUNTIF(K8:K137,"Passed")</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="27.0" customHeight="1">
@@ -1166,8 +2247,8 @@
         <v>12</v>
       </c>
       <c r="L3" s="10">
-        <f>COUNTIF(K8:K141,"Failed")</f>
-        <v>0</v>
+        <f>COUNTIF(K8:K137,"Failed")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1">
@@ -1175,7 +2256,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="10">
-        <f>COUNTIF(K8:K141,"Not Executed")</f>
+        <f>COUNTIF(K8:K137,"Not Executed")</f>
         <v>0</v>
       </c>
     </row>
@@ -1184,7 +2265,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="18">
-        <f>COUNTIF(K8:K141,"Out of Scope")</f>
+        <f>COUNTIF(K8:K137,"Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
@@ -1194,7 +2275,7 @@
       </c>
       <c r="L6" s="20">
         <f>SUM(L2:L5)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
@@ -1275,524 +2356,974 @@
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="41">
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" ht="33.0" customHeight="1">
+      <c r="A10" s="43">
         <f>sum(1+1)</f>
         <v>2</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47" t="s">
+      <c r="H10" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="41">
-        <f t="shared" ref="A11:A18" si="1">sum(A10+1)</f>
+      <c r="I10" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="49"/>
+    </row>
+    <row r="11" ht="33.0" customHeight="1">
+      <c r="A11" s="43">
+        <f t="shared" ref="A11:A17" si="1">sum(A10+1)</f>
         <v>3</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="41">
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="E11" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="49"/>
+    </row>
+    <row r="12" ht="33.0" customHeight="1">
+      <c r="A12" s="43">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="41">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="E12" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="49"/>
+    </row>
+    <row r="13" ht="33.0" customHeight="1">
+      <c r="A13" s="43">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="41">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="E13" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="49"/>
+    </row>
+    <row r="14" ht="33.0" customHeight="1">
+      <c r="A14" s="43">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="41">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="E14" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" ht="33.0" customHeight="1">
+      <c r="A15" s="43">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="41">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="E15" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="49"/>
+    </row>
+    <row r="16" ht="33.0" customHeight="1">
+      <c r="A16" s="43">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="51">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="E16" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="49"/>
+    </row>
+    <row r="17" ht="33.0" customHeight="1">
+      <c r="A17" s="53">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-    </row>
-    <row r="18" ht="72.75" customHeight="1">
-      <c r="A18" s="55">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="E17" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1">
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="57"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="55">
-        <v>11.0</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="59"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="55">
-        <f t="shared" ref="A21:A28" si="2">sum(A20+1)</f>
+      <c r="J18" s="57"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="60"/>
+    </row>
+    <row r="19" ht="30.0" customHeight="1">
+      <c r="A19" s="61">
+        <v>10.0</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="67"/>
+      <c r="K19" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="68"/>
+    </row>
+    <row r="20" ht="30.0" customHeight="1">
+      <c r="A20" s="69">
+        <f t="shared" ref="A20:A22" si="2">sum(A19+1)</f>
+        <v>11</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="67"/>
+      <c r="K20" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="68"/>
+    </row>
+    <row r="21" ht="30.0" customHeight="1">
+      <c r="A21" s="69">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="59"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="55">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="67"/>
+      <c r="K21" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="68"/>
+    </row>
+    <row r="22" ht="30.0" customHeight="1">
+      <c r="A22" s="69">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="67"/>
+      <c r="K22" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="55">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="59"/>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="55">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="55">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="59"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="55">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="55">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="55">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="59"/>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="80"/>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="55">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="76"/>
+    </row>
+    <row r="24" ht="27.75" customHeight="1">
+      <c r="A24" s="69">
         <f>sum(19+1)</f>
         <v>20</v>
       </c>
-      <c r="B30" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
-    </row>
-    <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="55">
-        <f t="shared" ref="A31:A33" si="3">sum(A30+1)</f>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="67"/>
+      <c r="K24" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="68"/>
+    </row>
+    <row r="25" ht="27.75" customHeight="1">
+      <c r="A25" s="69">
+        <f t="shared" ref="A25:A27" si="3">sum(A24+1)</f>
         <v>21</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-    </row>
-    <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="55">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="67"/>
+      <c r="K25" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="68"/>
+    </row>
+    <row r="26" ht="27.75" customHeight="1">
+      <c r="A26" s="69">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
-    </row>
-    <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="55">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="68"/>
+    </row>
+    <row r="27" ht="27.75" customHeight="1">
+      <c r="A27" s="69">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="81"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="84"/>
-    </row>
-    <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="85">
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="67"/>
+      <c r="K27" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="68"/>
+    </row>
+    <row r="28" ht="13.5" customHeight="1">
+      <c r="A28" s="82"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="85"/>
+    </row>
+    <row r="29" ht="27.0" customHeight="1">
+      <c r="A29" s="86">
         <f>sum(23+1)</f>
         <v>24</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="90"/>
-    </row>
-    <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="85">
-        <f>sum(A35+1)</f>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="91"/>
+      <c r="K29" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="92"/>
+    </row>
+    <row r="30" ht="25.5" customHeight="1">
+      <c r="A30" s="86">
+        <f>sum(A29+1)</f>
         <v>25</v>
       </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="90"/>
-    </row>
-    <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="88"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="90"/>
-    </row>
-    <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="93"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="95"/>
-    </row>
-    <row r="39" ht="13.5" customHeight="1"/>
-    <row r="40" ht="13.5" customHeight="1"/>
-    <row r="41" ht="13.5" customHeight="1"/>
-    <row r="42" ht="13.5" customHeight="1"/>
-    <row r="43" ht="13.5" customHeight="1"/>
-    <row r="44" ht="13.5" customHeight="1"/>
-    <row r="45" ht="13.5" customHeight="1"/>
-    <row r="46" ht="13.5" customHeight="1"/>
-    <row r="47" ht="13.5" customHeight="1"/>
-    <row r="48" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="91"/>
+      <c r="K30" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="92"/>
+    </row>
+    <row r="31" ht="29.25" customHeight="1">
+      <c r="A31" s="94"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="91"/>
+      <c r="K31" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="92"/>
+    </row>
+    <row r="32" ht="30.75" customHeight="1">
+      <c r="A32" s="94"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="91"/>
+      <c r="K32" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="92"/>
+    </row>
+    <row r="33" ht="30.75" customHeight="1">
+      <c r="A33" s="94"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="91"/>
+      <c r="K33" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="92"/>
+    </row>
+    <row r="34" ht="13.5" customHeight="1">
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="98"/>
+    </row>
+    <row r="35" ht="30.0" customHeight="1">
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+    </row>
+    <row r="36" ht="30.0" customHeight="1">
+      <c r="A36" s="99"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+    </row>
+    <row r="37" ht="30.0" customHeight="1">
+      <c r="A37" s="99"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+    </row>
+    <row r="38" ht="30.0" customHeight="1">
+      <c r="A38" s="99"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+    </row>
+    <row r="39" ht="30.0" customHeight="1">
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+    </row>
+    <row r="40" ht="30.0" customHeight="1">
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+    </row>
+    <row r="41" ht="30.0" customHeight="1">
+      <c r="A41" s="99"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+    </row>
+    <row r="42" ht="30.0" customHeight="1">
+      <c r="A42" s="99"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+    </row>
+    <row r="43" ht="30.0" customHeight="1">
+      <c r="A43" s="99"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+    </row>
+    <row r="44" ht="30.0" customHeight="1">
+      <c r="A44" s="99"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+    </row>
+    <row r="45" ht="30.0" customHeight="1">
+      <c r="A45" s="99"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+    </row>
+    <row r="46" ht="30.0" customHeight="1">
+      <c r="A46" s="99"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="99"/>
+    </row>
+    <row r="47" ht="30.0" customHeight="1">
+      <c r="A47" s="99"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+    </row>
+    <row r="48" ht="30.0" customHeight="1">
+      <c r="A48" s="99"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99"/>
+    </row>
+    <row r="49" ht="30.0" customHeight="1">
+      <c r="A49" s="99"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+    </row>
+    <row r="50" ht="30.0" customHeight="1">
+      <c r="A50" s="99"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="99"/>
+    </row>
+    <row r="51" ht="30.0" customHeight="1">
+      <c r="A51" s="99"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="99"/>
+      <c r="K51" s="99"/>
+      <c r="L51" s="99"/>
+    </row>
+    <row r="52" ht="30.0" customHeight="1">
+      <c r="A52" s="99"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="99"/>
+      <c r="K52" s="99"/>
+      <c r="L52" s="99"/>
+    </row>
+    <row r="53" ht="30.0" customHeight="1">
+      <c r="A53" s="99"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="99"/>
+    </row>
+    <row r="54" ht="30.0" customHeight="1">
+      <c r="A54" s="99"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="99"/>
+    </row>
+    <row r="55" ht="30.0" customHeight="1">
+      <c r="A55" s="99"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="99"/>
+    </row>
     <row r="56" ht="13.5" customHeight="1"/>
     <row r="57" ht="13.5" customHeight="1"/>
     <row r="58" ht="13.5" customHeight="1"/>
@@ -2705,31 +4236,27 @@
     <row r="965" ht="13.5" customHeight="1"/>
     <row r="966" ht="13.5" customHeight="1"/>
     <row r="967" ht="13.5" customHeight="1"/>
-    <row r="968" ht="13.5" customHeight="1"/>
-    <row r="969" ht="13.5" customHeight="1"/>
-    <row r="970" ht="13.5" customHeight="1"/>
-    <row r="971" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="K8 K10:K18 K20:K28 K30:K33 K35:K37">
+    <dataValidation type="list" allowBlank="1" sqref="K8 K10:K17 K19:K22 K24:K27 K29:K33">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2738,11 +4265,26 @@
     <hyperlink r:id="rId2" ref="C3"/>
     <hyperlink r:id="rId3" ref="E3"/>
     <hyperlink r:id="rId4" ref="I10"/>
+    <hyperlink r:id="rId5" ref="I19"/>
+    <hyperlink r:id="rId6" ref="I20"/>
+    <hyperlink r:id="rId7" ref="I21"/>
+    <hyperlink r:id="rId8" ref="I22"/>
+    <hyperlink r:id="rId9" ref="I24"/>
+    <hyperlink r:id="rId10" ref="I25"/>
+    <hyperlink r:id="rId11" ref="I26"/>
+    <hyperlink r:id="rId12" ref="J26"/>
+    <hyperlink r:id="rId13" ref="I27"/>
+    <hyperlink r:id="rId14" ref="I29"/>
+    <hyperlink r:id="rId15" ref="I30"/>
+    <hyperlink r:id="rId16" ref="I31"/>
+    <hyperlink r:id="rId17" ref="I32"/>
+    <hyperlink r:id="rId18" ref="I33"/>
+    <hyperlink r:id="rId19" ref="I35"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -2755,7 +4297,671 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.43"/>
+    <col customWidth="1" min="2" max="2" width="28.29"/>
+    <col customWidth="1" min="3" max="3" width="33.29"/>
+    <col customWidth="1" min="4" max="4" width="16.71"/>
+    <col customWidth="1" min="5" max="5" width="51.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="111"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="113">
+        <v>45205.0</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="111"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="105"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="105"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="108"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="115"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="120" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="124">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="127" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="127">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="127">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="122"/>
+      <c r="C17" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="127">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="131"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="122"/>
+      <c r="C19" s="126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="124">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="122"/>
+      <c r="C20" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="124">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="121" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="122"/>
+      <c r="C21" s="133" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="124">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="121" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="122"/>
+      <c r="C22" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="124">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="122"/>
+      <c r="C23" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="124">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="122"/>
+      <c r="C24" s="133" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="130" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="124">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="122"/>
+      <c r="C25" s="133" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="130" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="124">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="121" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="122"/>
+      <c r="C26" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="130" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="124">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="121" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="122"/>
+      <c r="C27" s="133" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="124">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="121" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="122"/>
+      <c r="C28" s="133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="124">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="121" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="122"/>
+      <c r="C29" s="133" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="124">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="105"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="105"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B4"/>
+    <hyperlink r:id="rId2" ref="B6"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="21.86"/>
+    <col customWidth="1" min="3" max="3" width="16.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="134"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="134"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="134"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="136"/>
+      <c r="B3" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="134"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="136"/>
+      <c r="B4" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="134"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="136"/>
+      <c r="B5" s="142" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="143" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="144" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="145" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="136"/>
+      <c r="B6" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="146"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="147">
+        <f>C14</f>
+        <v>20</v>
+      </c>
+      <c r="J6" s="148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="136"/>
+      <c r="B7" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="147">
+        <f>D14</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="136"/>
+      <c r="B8" s="140" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="147">
+        <f>E14</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="136"/>
+      <c r="B9" s="140" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="149"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="147">
+        <f>F14</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="136"/>
+      <c r="B10" s="150" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="151"/>
+      <c r="H10" s="134"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="136"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="134"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="136"/>
+      <c r="B12" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="153" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="134"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="154"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="156">
+        <f>TestCase!L2</f>
+        <v>20</v>
+      </c>
+      <c r="D13" s="157">
+        <f>TestCase!L3</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="158">
+        <f>TestCase!L4</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="159">
+        <f>TestCase!L5</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="160">
+        <f>TestCase!L6</f>
+        <v>22</v>
+      </c>
+      <c r="H13" s="105"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="136"/>
+      <c r="B14" s="161" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="161">
+        <f t="shared" ref="C14:G14" si="1">SUM(C13)</f>
+        <v>20</v>
+      </c>
+      <c r="D14" s="162">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="163">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H14" s="134"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="134"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B10:G11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C4"/>
+    <hyperlink r:id="rId2" ref="C7"/>
+    <hyperlink r:id="rId3" ref="C8"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Easel Architects.xlsx
+++ b/Easel Architects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16960" windowHeight="11020"/>
+    <workbookView windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="184">
   <si>
     <t>Product Name</t>
   </si>
@@ -381,6 +381,12 @@
     </r>
   </si>
   <si>
+    <t>Checking Sideber</t>
+  </si>
+  <si>
+    <t>Should show HOME on sideber</t>
+  </si>
+  <si>
     <t>Checking all button work</t>
   </si>
   <si>
@@ -429,6 +435,12 @@
     </r>
   </si>
   <si>
+    <t>Should show ABOUT US on sideber</t>
+  </si>
+  <si>
+    <t>1. Goto Url https://www.easelarchitects.com/about</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. Goto Url </t>
     </r>
@@ -447,21 +459,74 @@
     <t>PORTFOLIO</t>
   </si>
   <si>
+    <t>Checking no spelling mistakes for the text on the Portfolio page.</t>
+  </si>
+  <si>
     <t>1. Goto Url https://easelarchitects.com/portfolio</t>
   </si>
   <si>
-    <t>Scroll Imgae</t>
+    <t>Should show PORTFOLIO on sideber</t>
+  </si>
+  <si>
+    <t>2. Goto Url https://easelarchitects.com/portfolio</t>
+  </si>
+  <si>
+    <t>Scroll Imgae in Portfolio section</t>
   </si>
   <si>
     <t>Should be change by image serial</t>
   </si>
   <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>SERVICES</t>
+  </si>
+  <si>
+    <t>Checking no spelling mistakes for the text on the Services page.</t>
+  </si>
+  <si>
+    <t>1. Goto Url 
+https://www.easelarchitects.com/services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Interior &amp; Furniture </t>
+  </si>
+  <si>
+    <t>Should show description</t>
+  </si>
+  <si>
+    <t>Click on Landscape Mananagement</t>
+  </si>
+  <si>
+    <t>Click on Building Design &amp; Consultancy</t>
+  </si>
+  <si>
+    <t>Should show SERVICES on sideber</t>
+  </si>
+  <si>
+    <t>CLIENTS</t>
+  </si>
+  <si>
+    <t>Checking no spelling mistakes for the text on the Clients page.</t>
+  </si>
+  <si>
+    <t>1. Goto Url 
+https://www.easelarchitects.com/client</t>
+  </si>
+  <si>
+    <t>Should show CLIENTS on sideber</t>
+  </si>
+  <si>
+    <t>Checking Client Logo</t>
+  </si>
+  <si>
+    <t>Should be connect proper name with logo</t>
+  </si>
+  <si>
     <t>Project Name</t>
   </si>
   <si>
-    <t>Startech.bd.com</t>
-  </si>
-  <si>
     <t>Reference Document</t>
   </si>
   <si>
@@ -528,67 +593,61 @@
     <t>Validate Home Page.</t>
   </si>
   <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>Validate ABOUT US.</t>
+  </si>
+  <si>
+    <t>TS_007</t>
+  </si>
+  <si>
+    <t>Validate PORTFOLIO</t>
+  </si>
+  <si>
+    <t>TS_008</t>
+  </si>
+  <si>
+    <t>Validate SERVICES.</t>
+  </si>
+  <si>
+    <t>TS_009</t>
+  </si>
+  <si>
+    <t>Validate  CLIENTS.</t>
+  </si>
+  <si>
     <t>TS_010</t>
   </si>
   <si>
-    <t>Validate the working of "Search Bar" functionality.</t>
+    <t>Validate CONTACT.</t>
+  </si>
+  <si>
+    <t>TS_016</t>
+  </si>
+  <si>
+    <t>TS_017</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>TS_018</t>
+  </si>
+  <si>
+    <t>Validate the working of  "accessories"functionality.</t>
   </si>
   <si>
     <t>P4</t>
   </si>
   <si>
-    <t>TS_012</t>
-  </si>
-  <si>
-    <t>Validate the working of "Gadget Fest" functionality.</t>
+    <t>TS_019</t>
+  </si>
+  <si>
+    <t>Validate the working of  "office-equipment" functionality.</t>
   </si>
   <si>
     <t>P5</t>
-  </si>
-  <si>
-    <t>TS_013</t>
-  </si>
-  <si>
-    <t>Validate the working of  "Get offer" functionality.</t>
-  </si>
-  <si>
-    <t>TS_014</t>
-  </si>
-  <si>
-    <t>Validate the working of  "OTP" functionality.</t>
-  </si>
-  <si>
-    <t>TS_015</t>
-  </si>
-  <si>
-    <t>Validate the working of "Forgotten Password?" functionality.</t>
-  </si>
-  <si>
-    <t>TS_016</t>
-  </si>
-  <si>
-    <t>Validate the working of "Mobile Deal" functionality.</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>TS_017</t>
-  </si>
-  <si>
-    <t>Validate the working of  "PC Builder" functionality.</t>
-  </si>
-  <si>
-    <t>TS_018</t>
-  </si>
-  <si>
-    <t>Validate the working of  "accessories"functionality.</t>
-  </si>
-  <si>
-    <t>TS_019</t>
-  </si>
-  <si>
-    <t>Validate the working of  "office-equipment" functionality.</t>
   </si>
   <si>
     <t>TS_020</t>
@@ -653,7 +712,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,6 +908,13 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -1857,152 +1923,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="58" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="58" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2254,6 +2320,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2266,6 +2335,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2299,6 +2371,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2306,7 +2381,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2320,8 +2395,8 @@
     <xf numFmtId="0" fontId="20" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2329,12 +2404,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2414,7 +2495,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2426,7 +2507,7 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2441,11 +2522,14 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="48" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2706,12 +2790,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L967"/>
+  <dimension ref="A1:L970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
@@ -2742,13 +2826,13 @@
       <c r="D1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="95">
+      <c r="E1" s="97">
         <v>45205</v>
       </c>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="117"/>
+      <c r="L1" s="122"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:12">
       <c r="A2" s="54" t="s">
@@ -2761,15 +2845,15 @@
       <c r="D2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="95">
+      <c r="E2" s="97">
         <v>45207</v>
       </c>
-      <c r="K2" s="118" t="s">
+      <c r="K2" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="119">
-        <f>COUNTIF(K8:K137,"Passed")</f>
-        <v>23</v>
+      <c r="L2" s="124">
+        <f>COUNTIF(K8:K140,"Passed")</f>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:12">
@@ -2783,42 +2867,42 @@
       <c r="D3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="120" t="s">
+      <c r="K3" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="119">
-        <f>COUNTIF(K8:K137,"Failed")</f>
+      <c r="L3" s="124">
+        <f>COUNTIF(K8:K140,"Failed")</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="11:12">
-      <c r="K4" s="121" t="s">
+      <c r="K4" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="119">
-        <f>COUNTIF(K8:K137,"Not Executed")</f>
+      <c r="L4" s="124">
+        <f>COUNTIF(K8:K140,"Not Executed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="11:12">
-      <c r="K5" s="122" t="s">
+      <c r="K5" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="123">
-        <f>COUNTIF(K8:K137,"Out of Scope")</f>
+      <c r="L5" s="128">
+        <f>COUNTIF(K8:K140,"Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="11:12">
-      <c r="K6" s="124" t="s">
+      <c r="K6" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="125">
+      <c r="L6" s="130">
         <f>SUM(L2:L5)</f>
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="1:12">
@@ -2834,28 +2918,28 @@
       <c r="D7" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="98" t="s">
+      <c r="G7" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="98" t="s">
+      <c r="H7" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="98" t="s">
+      <c r="I7" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="100" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="131" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2868,40 +2952,40 @@
         <v>28</v>
       </c>
       <c r="D8" s="65"/>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F8" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="101" t="s">
+      <c r="H8" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="101" t="s">
+      <c r="I8" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="127"/>
-      <c r="K8" s="128" t="s">
+      <c r="J8" s="132"/>
+      <c r="K8" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="129"/>
+      <c r="L8" s="134"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="1:12">
       <c r="A9" s="67"/>
       <c r="B9" s="68"/>
       <c r="C9" s="69"/>
       <c r="D9" s="68"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="130"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="135"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:12">
       <c r="A10" s="70">
@@ -2913,26 +2997,26 @@
       <c r="D10" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="103" t="s">
+      <c r="H10" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="132" t="s">
+      <c r="I10" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="133"/>
-      <c r="K10" s="134" t="s">
+      <c r="J10" s="138"/>
+      <c r="K10" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="133"/>
+      <c r="L10" s="138"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:12">
       <c r="A11" s="70">
@@ -2941,26 +3025,26 @@
       </c>
       <c r="B11" s="74"/>
       <c r="C11" s="74"/>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="103" t="s">
+      <c r="G11" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="103" t="s">
+      <c r="H11" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="103" t="s">
+      <c r="I11" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="133"/>
-      <c r="K11" s="134" t="s">
+      <c r="J11" s="138"/>
+      <c r="K11" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="133"/>
+      <c r="L11" s="138"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:12">
       <c r="A12" s="70">
@@ -2969,26 +3053,26 @@
       </c>
       <c r="B12" s="74"/>
       <c r="C12" s="74"/>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="F12" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="103" t="s">
+      <c r="H12" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="133"/>
-      <c r="K12" s="134" t="s">
+      <c r="J12" s="138"/>
+      <c r="K12" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="133"/>
+      <c r="L12" s="138"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:12">
       <c r="A13" s="70">
@@ -2997,26 +3081,26 @@
       </c>
       <c r="B13" s="74"/>
       <c r="C13" s="74"/>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="104" t="s">
+      <c r="F13" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="103" t="s">
+      <c r="G13" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="103" t="s">
+      <c r="H13" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="103" t="s">
+      <c r="I13" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="133"/>
-      <c r="K13" s="134" t="s">
+      <c r="J13" s="138"/>
+      <c r="K13" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="133"/>
+      <c r="L13" s="138"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:12">
       <c r="A14" s="70">
@@ -3025,26 +3109,26 @@
       </c>
       <c r="B14" s="74"/>
       <c r="C14" s="74"/>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="103" t="s">
+      <c r="H14" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="133"/>
-      <c r="K14" s="134" t="s">
+      <c r="J14" s="138"/>
+      <c r="K14" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="133"/>
+      <c r="L14" s="138"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:12">
       <c r="A15" s="70">
@@ -3053,26 +3137,26 @@
       </c>
       <c r="B15" s="74"/>
       <c r="C15" s="74"/>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="103" t="s">
+      <c r="F15" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="103" t="s">
+      <c r="H15" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="103" t="s">
+      <c r="I15" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="133"/>
-      <c r="K15" s="134" t="s">
+      <c r="J15" s="138"/>
+      <c r="K15" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="133"/>
+      <c r="L15" s="138"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:12">
       <c r="A16" s="70">
@@ -3081,26 +3165,26 @@
       </c>
       <c r="B16" s="74"/>
       <c r="C16" s="74"/>
-      <c r="E16" s="103" t="s">
+      <c r="E16" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="F16" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="103" t="s">
+      <c r="H16" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="103" t="s">
+      <c r="I16" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="133"/>
-      <c r="K16" s="134" t="s">
+      <c r="J16" s="138"/>
+      <c r="K16" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="133"/>
+      <c r="L16" s="138"/>
     </row>
     <row r="17" ht="33" customHeight="1" spans="1:12">
       <c r="A17" s="75">
@@ -3109,40 +3193,40 @@
       </c>
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="103" t="s">
+      <c r="F17" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="103" t="s">
+      <c r="G17" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="103" t="s">
+      <c r="H17" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="103" t="s">
+      <c r="I17" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="133"/>
-      <c r="K17" s="134" t="s">
+      <c r="J17" s="138"/>
+      <c r="K17" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="133"/>
+      <c r="L17" s="138"/>
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:12">
       <c r="A18" s="76"/>
       <c r="B18" s="77"/>
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="136"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="141"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:12">
       <c r="A19" s="79">
@@ -3153,26 +3237,26 @@
       <c r="D19" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="103" t="s">
+      <c r="E19" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="103" t="s">
+      <c r="F19" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="107" t="s">
+      <c r="G19" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="108" t="s">
+      <c r="H19" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="137" t="s">
+      <c r="I19" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="107"/>
-      <c r="K19" s="134" t="s">
+      <c r="J19" s="110"/>
+      <c r="K19" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="138"/>
+      <c r="L19" s="143"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:12">
       <c r="A20" s="79">
@@ -3182,26 +3266,26 @@
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
       <c r="D20" s="74"/>
-      <c r="E20" s="103" t="s">
+      <c r="E20" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="103" t="s">
+      <c r="F20" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="107" t="s">
+      <c r="G20" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="108" t="s">
+      <c r="H20" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="137" t="s">
+      <c r="I20" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="107"/>
-      <c r="K20" s="134" t="s">
+      <c r="J20" s="110"/>
+      <c r="K20" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="138"/>
+      <c r="L20" s="143"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:12">
       <c r="A21" s="79">
@@ -3211,26 +3295,26 @@
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="103" t="s">
+      <c r="F21" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="107" t="s">
+      <c r="G21" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="108" t="s">
+      <c r="H21" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="137" t="s">
+      <c r="I21" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="107"/>
-      <c r="K21" s="134" t="s">
+      <c r="J21" s="110"/>
+      <c r="K21" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="138"/>
+      <c r="L21" s="143"/>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:12">
       <c r="A22" s="79">
@@ -3240,40 +3324,40 @@
       <c r="B22" s="74"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="103" t="s">
+      <c r="E22" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="103" t="s">
+      <c r="F22" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="107" t="s">
+      <c r="G22" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="108" t="s">
+      <c r="H22" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="137" t="s">
+      <c r="I22" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="107"/>
-      <c r="K22" s="134" t="s">
+      <c r="J22" s="110"/>
+      <c r="K22" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="138"/>
+      <c r="L22" s="143"/>
     </row>
     <row r="23" ht="13.5" customHeight="1" spans="1:12">
       <c r="A23" s="76"/>
       <c r="B23" s="77"/>
       <c r="C23" s="82"/>
       <c r="D23" s="82"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="140"/>
-      <c r="L23" s="141"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="146"/>
     </row>
     <row r="24" ht="27.75" customHeight="1" spans="1:12">
       <c r="A24" s="79">
@@ -3285,26 +3369,26 @@
       <c r="D24" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="103" t="s">
+      <c r="E24" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="103" t="s">
+      <c r="F24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="103" t="s">
+      <c r="G24" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="111" t="s">
+      <c r="H24" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="142" t="s">
+      <c r="I24" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="J24" s="107"/>
-      <c r="K24" s="134" t="s">
+      <c r="J24" s="110"/>
+      <c r="K24" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="138"/>
+      <c r="L24" s="143"/>
     </row>
     <row r="25" ht="27.75" customHeight="1" spans="1:12">
       <c r="A25" s="79">
@@ -3314,26 +3398,26 @@
       <c r="B25" s="74"/>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="103" t="s">
+      <c r="G25" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="111" t="s">
+      <c r="H25" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="142" t="s">
+      <c r="I25" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="J25" s="107"/>
-      <c r="K25" s="134" t="s">
+      <c r="J25" s="110"/>
+      <c r="K25" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="138"/>
+      <c r="L25" s="143"/>
     </row>
     <row r="26" ht="27.75" customHeight="1" spans="1:12">
       <c r="A26" s="79">
@@ -3343,28 +3427,28 @@
       <c r="B26" s="74"/>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="103" t="s">
+      <c r="F26" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="103" t="s">
+      <c r="G26" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="111" t="s">
+      <c r="H26" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="142" t="s">
+      <c r="I26" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="J26" s="143" t="s">
+      <c r="J26" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="144" t="s">
+      <c r="K26" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="138"/>
+      <c r="L26" s="143"/>
     </row>
     <row r="27" ht="27.75" customHeight="1" spans="1:12">
       <c r="A27" s="79">
@@ -3374,26 +3458,26 @@
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="103" t="s">
+      <c r="F27" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="103" t="s">
+      <c r="G27" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="111" t="s">
+      <c r="H27" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="142" t="s">
+      <c r="I27" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="107"/>
-      <c r="K27" s="134" t="s">
+      <c r="J27" s="110"/>
+      <c r="K27" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="138"/>
+      <c r="L27" s="143"/>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:12">
       <c r="A28" s="83"/>
@@ -3403,11 +3487,11 @@
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
+      <c r="H28" s="114"/>
       <c r="I28" s="84"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="146"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="151"/>
     </row>
     <row r="29" ht="27" customHeight="1" spans="1:12">
       <c r="A29" s="85">
@@ -3419,26 +3503,26 @@
       <c r="D29" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="112" t="s">
+      <c r="E29" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="112" t="s">
+      <c r="F29" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="112" t="s">
+      <c r="G29" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="108" t="s">
+      <c r="H29" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="147" t="s">
+      <c r="I29" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="J29" s="148"/>
-      <c r="K29" s="134" t="s">
+      <c r="J29" s="153"/>
+      <c r="K29" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="149"/>
+      <c r="L29" s="154"/>
     </row>
     <row r="30" ht="25.5" customHeight="1" spans="1:12">
       <c r="A30" s="85">
@@ -3448,84 +3532,84 @@
       <c r="B30" s="88"/>
       <c r="C30" s="88"/>
       <c r="D30" s="88"/>
-      <c r="E30" s="112" t="s">
+      <c r="E30" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="112" t="s">
+      <c r="F30" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="112" t="s">
+      <c r="G30" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="108" t="s">
+      <c r="H30" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="147" t="s">
+      <c r="I30" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="J30" s="148"/>
-      <c r="K30" s="134" t="s">
+      <c r="J30" s="153"/>
+      <c r="K30" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="149"/>
-    </row>
-    <row r="31" ht="29.25" customHeight="1" spans="1:12">
+      <c r="L30" s="154"/>
+    </row>
+    <row r="31" ht="25.5" customHeight="1" spans="1:12">
       <c r="A31" s="85">
         <f>SUM(A30+1)</f>
         <v>20</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="112" t="s">
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="112" t="s">
+      <c r="F31" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="112" t="s">
+      <c r="G31" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="108" t="s">
+      <c r="H31" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="147" t="s">
+      <c r="I31" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="J31" s="148"/>
-      <c r="K31" s="134" t="s">
+      <c r="J31" s="153"/>
+      <c r="K31" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="149"/>
-    </row>
-    <row r="32" ht="30.75" customHeight="1" spans="1:12">
+      <c r="L31" s="154"/>
+    </row>
+    <row r="32" ht="29.25" customHeight="1" spans="1:12">
       <c r="A32" s="85">
         <f>SUM(A31+1)</f>
         <v>21</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="112" t="s">
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="112" t="s">
+      <c r="F32" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="112" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="108" t="s">
+      <c r="G32" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="147" t="s">
+      <c r="I32" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="J32" s="148"/>
-      <c r="K32" s="144" t="s">
-        <v>80</v>
-      </c>
-      <c r="L32" s="149"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="154"/>
     </row>
     <row r="33" ht="30.75" customHeight="1" spans="1:12">
       <c r="A33" s="85">
@@ -3535,401 +3619,610 @@
       <c r="B33" s="89"/>
       <c r="C33" s="89"/>
       <c r="D33" s="89"/>
-      <c r="E33" s="112" t="s">
+      <c r="E33" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="112" t="s">
+      <c r="G33" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="108" t="s">
+      <c r="H33" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="147" t="s">
+      <c r="I33" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="J33" s="148"/>
-      <c r="K33" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" s="149"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A34" s="90"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33" s="154"/>
+    </row>
+    <row r="34" ht="30.75" customHeight="1" spans="1:12">
+      <c r="A34" s="85">
+        <f>SUM(A33+1)</f>
+        <v>23</v>
+      </c>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
       <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="140"/>
-      <c r="L34" s="151"/>
-    </row>
-    <row r="35" ht="30" customHeight="1" spans="1:12">
-      <c r="A35" s="91">
-        <f>SUM(22+1)</f>
-        <v>23</v>
-      </c>
+      <c r="E34" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="152" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="153"/>
+      <c r="K34" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="154"/>
+    </row>
+    <row r="35" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A35" s="91"/>
       <c r="B35" s="91"/>
       <c r="C35" s="91"/>
-      <c r="D35" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="113" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="113" t="s">
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="156"/>
+    </row>
+    <row r="36" ht="30" customHeight="1" spans="1:12">
+      <c r="A36" s="92">
+        <f>SUM(23+1)</f>
+        <v>24</v>
+      </c>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="113" t="s">
+      <c r="G36" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="114" t="s">
+      <c r="H36" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="152" t="s">
-        <v>97</v>
-      </c>
-      <c r="J35" s="91"/>
-      <c r="K35" s="134" t="s">
+      <c r="I36" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="92"/>
+      <c r="K36" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L35" s="91"/>
-    </row>
-    <row r="36" ht="30" customHeight="1" spans="1:12">
-      <c r="A36" s="91">
-        <f>SUM(A35+1)</f>
-        <v>24</v>
-      </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="113" t="s">
+      <c r="L36" s="92"/>
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="1:12">
+      <c r="A37" s="92">
+        <f>SUM(A36+1)</f>
+        <v>25</v>
+      </c>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="113" t="s">
+      <c r="F37" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="113" t="s">
+      <c r="H37" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="134" t="s">
+      <c r="I37" s="158" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" s="92"/>
+      <c r="K37" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L36" s="91"/>
-    </row>
-    <row r="37" ht="14" customHeight="1" spans="1:12">
-      <c r="A37" s="94"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
+      <c r="L37" s="92"/>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:12">
-      <c r="A38" s="91">
-        <v>25</v>
-      </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="113" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="113" t="s">
+      <c r="A38" s="92">
+        <f>SUM(A37+1)</f>
+        <v>26</v>
+      </c>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="158" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" s="92"/>
+      <c r="K38" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="92"/>
+    </row>
+    <row r="39" ht="14" customHeight="1" spans="1:12">
+      <c r="A39" s="96"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="96"/>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:12">
+      <c r="A40" s="92">
+        <v>27</v>
+      </c>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="113" t="s">
+      <c r="G40" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="113" t="s">
+      <c r="H40" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="J38" s="91"/>
-      <c r="K38" s="134" t="s">
+      <c r="I40" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" s="92"/>
+      <c r="K40" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="91"/>
-    </row>
-    <row r="39" ht="30" customHeight="1" spans="1:12">
-      <c r="A39" s="91">
-        <f>SUM(A38+1)</f>
-        <v>26</v>
-      </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="113" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="G39" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="H39" s="113" t="s">
+      <c r="L40" s="92"/>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="1:12">
+      <c r="A41" s="92">
+        <f>SUM(A40+1)</f>
+        <v>28</v>
+      </c>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="J39" s="91"/>
-      <c r="K39" s="144" t="s">
+      <c r="I41" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="J41" s="159"/>
+      <c r="K41" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="92"/>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="1:12">
+      <c r="A42" s="92">
+        <f>SUM(A41+1)</f>
+        <v>29</v>
+      </c>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="159" t="s">
+        <v>110</v>
+      </c>
+      <c r="K42" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="91"/>
-    </row>
-    <row r="40" ht="30" customHeight="1" spans="1:12">
-      <c r="A40" s="91"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-    </row>
-    <row r="41" ht="30" customHeight="1" spans="1:12">
-      <c r="A41" s="91"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-    </row>
-    <row r="42" ht="30" customHeight="1" spans="1:12">
-      <c r="A42" s="91"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="91"/>
-    </row>
-    <row r="43" ht="30" customHeight="1" spans="1:12">
-      <c r="A43" s="91"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="91"/>
+      <c r="L42" s="92"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:12">
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
     </row>
     <row r="44" ht="30" customHeight="1" spans="1:12">
-      <c r="A44" s="91"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="91"/>
+      <c r="A44" s="92">
+        <f>SUM(29+1)</f>
+        <v>30</v>
+      </c>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="J44" s="92"/>
+      <c r="K44" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="92"/>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:12">
-      <c r="A45" s="91"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
+      <c r="A45" s="92">
+        <f>SUM(A44+1)</f>
+        <v>31</v>
+      </c>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="116" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="J45" s="92"/>
+      <c r="K45" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="92"/>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:12">
-      <c r="A46" s="91"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="91"/>
+      <c r="A46" s="92">
+        <f>SUM(A45+1)</f>
+        <v>32</v>
+      </c>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="J46" s="92"/>
+      <c r="K46" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="92"/>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:12">
-      <c r="A47" s="91"/>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
+      <c r="A47" s="92">
+        <f>SUM(A46+1)</f>
+        <v>33</v>
+      </c>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="J47" s="92"/>
+      <c r="K47" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="92"/>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:12">
-      <c r="A48" s="91"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="91"/>
-    </row>
-    <row r="49" ht="30" customHeight="1" spans="1:12">
-      <c r="A49" s="91"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="113"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="91"/>
+      <c r="A48" s="92">
+        <f>SUM(A47+1)</f>
+        <v>34</v>
+      </c>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="J48" s="92"/>
+      <c r="K48" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="92"/>
+    </row>
+    <row r="49" ht="16" customHeight="1" spans="1:12">
+      <c r="A49" s="96"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="119"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="96"/>
     </row>
     <row r="50" ht="30" customHeight="1" spans="1:12">
-      <c r="A50" s="91"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="113"/>
-      <c r="I50" s="113"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="91"/>
+      <c r="A50" s="92">
+        <v>35</v>
+      </c>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="J50" s="92"/>
+      <c r="K50" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" s="92"/>
     </row>
     <row r="51" ht="30" customHeight="1" spans="1:12">
-      <c r="A51" s="91"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="113"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="91"/>
-      <c r="L51" s="91"/>
+      <c r="A51" s="92">
+        <f>SUM(A50+1)</f>
+        <v>36</v>
+      </c>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="J51" s="92"/>
+      <c r="K51" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" s="92"/>
     </row>
     <row r="52" ht="30" customHeight="1" spans="1:12">
-      <c r="A52" s="91"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="91"/>
-      <c r="K52" s="91"/>
-      <c r="L52" s="91"/>
-    </row>
-    <row r="53" ht="30" customHeight="1" spans="1:12">
-      <c r="A53" s="91"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="91"/>
-      <c r="L53" s="91"/>
+      <c r="A52" s="92">
+        <f>SUM(A51+1)</f>
+        <v>37</v>
+      </c>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="J52" s="92"/>
+      <c r="K52" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" s="92"/>
+    </row>
+    <row r="53" ht="16" customHeight="1" spans="1:12">
+      <c r="A53" s="96"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="119"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="96"/>
     </row>
     <row r="54" ht="30" customHeight="1" spans="1:12">
-      <c r="A54" s="91"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="113"/>
-      <c r="I54" s="113"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="91"/>
+      <c r="A54" s="92"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="92"/>
     </row>
     <row r="55" ht="30" customHeight="1" spans="1:12">
-      <c r="A55" s="91"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="113"/>
-      <c r="I55" s="113"/>
-      <c r="J55" s="91"/>
-      <c r="K55" s="91"/>
-      <c r="L55" s="91"/>
-    </row>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
+      <c r="A55" s="92"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="92"/>
+      <c r="L55" s="92"/>
+    </row>
+    <row r="56" ht="30" customHeight="1" spans="1:12">
+      <c r="A56" s="92"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="92"/>
+      <c r="L56" s="92"/>
+    </row>
+    <row r="57" ht="30" customHeight="1" spans="1:12">
+      <c r="A57" s="92"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
+      <c r="L57" s="92"/>
+    </row>
+    <row r="58" ht="30" customHeight="1" spans="1:12">
+      <c r="A58" s="92"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="92"/>
+      <c r="L58" s="92"/>
+    </row>
     <row r="59" ht="13.5" customHeight="1"/>
     <row r="60" ht="13.5" customHeight="1"/>
     <row r="61" ht="13.5" customHeight="1"/>
@@ -4839,8 +5132,11 @@
     <row r="965" ht="13.5" customHeight="1"/>
     <row r="966" ht="13.5" customHeight="1"/>
     <row r="967" ht="13.5" customHeight="1"/>
+    <row r="968" ht="13.5" customHeight="1"/>
+    <row r="969" ht="13.5" customHeight="1"/>
+    <row r="970" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A2:B2"/>
@@ -4848,19 +5144,22 @@
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B29:B34"/>
     <mergeCell ref="C10:C17"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C29:C34"/>
     <mergeCell ref="D10:D17"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="D50:D52"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="K8 K35 K36 K38 K39 K10:K17 K19:K22 K24:K27 K29:K33">
+    <dataValidation type="list" allowBlank="1" sqref="K8 K29 K30 K38 K40 K41 K42 K50 K51 K52 K10:K17 K19:K22 K24:K27 K31:K34 K36:K37 K44:K46 K47:K48">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4879,12 +5178,14 @@
     <hyperlink ref="J26" r:id="rId4" display="social link"/>
     <hyperlink ref="I27" r:id="rId1" display="1. Goto Url https://www.easelarchitects.com/"/>
     <hyperlink ref="I29" r:id="rId1" display="1. Goto Url&#10;https://www.easelarchitects.com/"/>
-    <hyperlink ref="I30" r:id="rId1" display="1. Goto Url&#10;https://www.easelarchitects.com/"/>
     <hyperlink ref="I31" r:id="rId1" display="1. Goto Url&#10;https://www.easelarchitects.com/"/>
     <hyperlink ref="I32" r:id="rId1" display="1. Goto Url&#10;https://www.easelarchitects.com/"/>
     <hyperlink ref="I33" r:id="rId1" display="1. Goto Url&#10;https://www.easelarchitects.com/"/>
+    <hyperlink ref="I34" r:id="rId1" display="1. Goto Url&#10;https://www.easelarchitects.com/"/>
+    <hyperlink ref="I38" r:id="rId5" display="1. Goto Url https://www.easelarchitects.com/about"/>
     <hyperlink ref="I36" r:id="rId5" display="1. Goto Url https://www.easelarchitects.com/about"/>
-    <hyperlink ref="I35" r:id="rId5" display="1. Goto Url https://www.easelarchitects.com/about"/>
+    <hyperlink ref="J42" r:id="rId6" display="Filter"/>
+    <hyperlink ref="I30" r:id="rId1" display="1. Goto Url&#10;https://www.easelarchitects.com/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
@@ -4900,7 +5201,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
@@ -4935,10 +5236,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="35" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="26"/>
@@ -4946,7 +5247,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="35" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="37"/>
@@ -4955,7 +5256,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="35" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B6" s="39" t="s">
         <v>11</v>
@@ -4966,7 +5267,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="35" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B7" s="40">
         <v>45205</v>
@@ -4977,7 +5278,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="35" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="37"/>
@@ -5014,31 +5315,31 @@
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="44" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="47" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="49" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E14" s="50">
         <v>1</v>
@@ -5046,14 +5347,14 @@
     </row>
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="51" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="49" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="E15" s="50">
         <v>8</v>
@@ -5061,14 +5362,14 @@
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="47" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="49" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E16" s="50">
         <v>4</v>
@@ -5076,14 +5377,14 @@
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="47" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="E17" s="50">
         <v>4</v>
@@ -5098,59 +5399,59 @@
     </row>
     <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="47" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E19" s="50">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="47" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="49" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E20" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="47" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="49" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E21" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="47" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="49" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E22" s="50">
         <v>5</v>
@@ -5158,29 +5459,29 @@
     </row>
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="47" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="49" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E23" s="50">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="47" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="49" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E24" s="50">
         <v>10</v>
@@ -5188,14 +5489,14 @@
     </row>
     <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="47" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>141</v>
+        <v>147</v>
+      </c>
+      <c r="D25" s="50">
+        <v>3</v>
       </c>
       <c r="E25" s="50">
         <v>1</v>
@@ -5203,14 +5504,12 @@
     </row>
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="47" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B26" s="48"/>
-      <c r="C26" s="49" t="s">
-        <v>143</v>
-      </c>
+      <c r="C26" s="49"/>
       <c r="D26" s="50" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E26" s="50">
         <v>1</v>
@@ -5218,14 +5517,14 @@
     </row>
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="47" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="49" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="E27" s="50">
         <v>1</v>
@@ -5233,14 +5532,14 @@
     </row>
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="47" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="49" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="E28" s="50">
         <v>1</v>
@@ -5248,14 +5547,14 @@
     </row>
     <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="47" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="49" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="E29" s="50">
         <v>1</v>
@@ -5284,7 +5583,7 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="Startech.bd.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="Easel Architects &amp; Engineering"/>
     <hyperlink ref="B6" r:id="rId2" display="Mohammad Sumon"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5332,7 +5631,7 @@
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5344,7 +5643,7 @@
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -5358,10 +5657,10 @@
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="8" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -5369,16 +5668,16 @@
       <c r="G5" s="20"/>
       <c r="H5" s="3"/>
       <c r="I5" s="28" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="6" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="5"/>
@@ -5388,7 +5687,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="30">
         <f>C14</f>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J6" s="31" t="s">
         <v>7</v>
@@ -5397,7 +5696,7 @@
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>11</v>
@@ -5418,7 +5717,7 @@
     <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="3"/>
       <c r="B8" s="6" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>11</v>
@@ -5439,7 +5738,7 @@
     <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="5"/>
@@ -5458,7 +5757,7 @@
     <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="11" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="1"/>
@@ -5476,7 +5775,7 @@
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>7</v>
@@ -5488,10 +5787,10 @@
         <v>13</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -5500,7 +5799,7 @@
       <c r="B13" s="14"/>
       <c r="C13" s="15">
         <f>TestCase!L2</f>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D13" s="16">
         <f>TestCase!L3</f>
@@ -5516,18 +5815,18 @@
       </c>
       <c r="G13" s="25">
         <f>TestCase!L6</f>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H13" s="26"/>
     </row>
     <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="17" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C14" s="17">
         <f t="shared" ref="C14:G14" si="0">SUM(C13)</f>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" si="0"/>
@@ -5543,7 +5842,7 @@
       </c>
       <c r="G14" s="27">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H14" s="1"/>
     </row>

--- a/Easel Architects.xlsx
+++ b/Easel Architects.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="181">
   <si>
     <t>Product Name</t>
   </si>
@@ -147,11 +147,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">1. Goto Url
 </t>
     </r>
@@ -160,7 +155,7 @@
         <u/>
         <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t>https://www.easelarchitects.com/</t>
@@ -251,12 +246,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">1. Goto Url </t>
     </r>
     <r>
@@ -264,7 +253,7 @@
         <u/>
         <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t>https://www.easelarchitects.com/</t>
@@ -273,7 +262,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -306,12 +295,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">1. Goto Url </t>
     </r>
     <r>
@@ -319,7 +302,7 @@
         <u/>
         <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t>https://www.easelarchitects.com/</t>
@@ -357,28 +340,6 @@
   </si>
   <si>
     <t>Checking no spelling mistakes for the text on the Home Page.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1. Goto Url
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://www.easelarchitects.com/</t>
-    </r>
   </si>
   <si>
     <t>Checking Sideber</t>
@@ -426,9 +387,9 @@
     <r>
       <rPr>
         <u/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color rgb="FF800080"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t>https://www.easelarchitects.com/about</t>
@@ -441,21 +402,6 @@
     <t>1. Goto Url https://www.easelarchitects.com/about</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Goto Url </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://www.easelarchitects.com/about</t>
-    </r>
-  </si>
-  <si>
     <t>PORTFOLIO</t>
   </si>
   <si>
@@ -524,6 +470,37 @@
     <t>Should be connect proper name with logo</t>
   </si>
   <si>
+    <t>CONTACTS</t>
+  </si>
+  <si>
+    <t>Checking no spelling mistakes for the text on the Contacts page.</t>
+  </si>
+  <si>
+    <t>1. Goto Url 
+https://www.easelarchitects.com/contact</t>
+  </si>
+  <si>
+    <t>Should show CONTACTS on sideber</t>
+  </si>
+  <si>
+    <t>Checking the map displays the correct location</t>
+  </si>
+  <si>
+    <t>Should be show correct location</t>
+  </si>
+  <si>
+    <t>Test zooming in and out on the map using zoom controls or pinch gestures on mobile devices.</t>
+  </si>
+  <si>
+    <t>Should be zoom in and out</t>
+  </si>
+  <si>
+    <t>Verify that the map can switch between standard map view and satellite view.</t>
+  </si>
+  <si>
+    <t>Should be show standard and satellite view</t>
+  </si>
+  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -621,39 +598,6 @@
   </si>
   <si>
     <t>Validate CONTACT.</t>
-  </si>
-  <si>
-    <t>TS_016</t>
-  </si>
-  <si>
-    <t>TS_017</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>TS_018</t>
-  </si>
-  <si>
-    <t>Validate the working of  "accessories"functionality.</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>TS_019</t>
-  </si>
-  <si>
-    <t>Validate the working of  "office-equipment" functionality.</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>TS_020</t>
-  </si>
-  <si>
-    <t>Validate the working of  "SUPPORT"functionality.</t>
   </si>
   <si>
     <t>Test Case Report</t>
@@ -804,7 +748,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -813,6 +757,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman Regular"/>
       <charset val="134"/>
     </font>
     <font>
@@ -851,16 +801,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Times New Roman Regular"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman Regular"/>
       <charset val="134"/>
     </font>
     <font>
@@ -868,13 +836,25 @@
       <u/>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
@@ -898,43 +878,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF800080"/>
-      <name val="Times New Roman"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman Regular"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -1081,42 +1047,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
+      <color rgb="FF1155CC"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color rgb="FF1155CC"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Times New Roman Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Times New Roman Regular"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1482,7 +1423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1699,65 +1640,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1774,9 +1656,70 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1809,6 +1752,15 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1923,152 +1875,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="58" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="58" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2225,310 +2177,337 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="48" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2792,10 +2771,10 @@
   <sheetPr/>
   <dimension ref="A1:L970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
@@ -2804,7 +2783,7 @@
     <col min="2" max="2" width="16.859375" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="27.859375" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="54" customWidth="1"/>
     <col min="6" max="6" width="25.4296875" customWidth="1"/>
     <col min="7" max="7" width="30.859375" customWidth="1"/>
     <col min="8" max="8" width="31.2890625" customWidth="1"/>
@@ -2816,178 +2795,178 @@
   </cols>
   <sheetData>
     <row r="1" ht="40.5" customHeight="1" spans="1:12">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="97">
-        <v>45205</v>
-      </c>
-      <c r="K1" s="121" t="s">
+      <c r="E1" s="101">
+        <v>45226</v>
+      </c>
+      <c r="K1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="122"/>
+      <c r="L1" s="128"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:12">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="97">
-        <v>45207</v>
-      </c>
-      <c r="K2" s="123" t="s">
+      <c r="E2" s="101">
+        <v>45235</v>
+      </c>
+      <c r="K2" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="124">
+      <c r="L2" s="130">
         <f>COUNTIF(K8:K140,"Passed")</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:12">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="125" t="s">
+      <c r="K3" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="124">
+      <c r="L3" s="130">
         <f>COUNTIF(K8:K140,"Failed")</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="11:12">
-      <c r="K4" s="126" t="s">
+      <c r="K4" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="124">
+      <c r="L4" s="130">
         <f>COUNTIF(K8:K140,"Not Executed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="11:12">
-      <c r="K5" s="127" t="s">
+      <c r="K5" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="128">
+      <c r="L5" s="134">
         <f>COUNTIF(K8:K140,"Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="11:12">
-      <c r="K6" s="129" t="s">
+      <c r="K6" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="130">
+      <c r="L6" s="136">
         <f>SUM(L2:L5)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="F7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="100" t="s">
+      <c r="G7" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="100" t="s">
+      <c r="H7" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="100" t="s">
+      <c r="I7" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="100" t="s">
+      <c r="J7" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="63" t="s">
+      <c r="K7" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="138" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="42.75" customHeight="1" spans="1:12">
-      <c r="A8" s="64">
+    <row r="8" s="54" customFormat="1" ht="42.75" customHeight="1" spans="1:12">
+      <c r="A8" s="65">
         <v>1</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="101" t="s">
+      <c r="D8" s="66"/>
+      <c r="E8" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="102" t="s">
+      <c r="G8" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="103" t="s">
+      <c r="H8" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="132"/>
-      <c r="K8" s="133" t="s">
+      <c r="J8" s="139"/>
+      <c r="K8" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="134"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A9" s="67"/>
+      <c r="L8" s="141"/>
+    </row>
+    <row r="9" s="54" customFormat="1" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A9" s="68"/>
       <c r="B9" s="68"/>
       <c r="C9" s="69"/>
       <c r="D9" s="68"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="135"/>
-    </row>
-    <row r="10" ht="33" customHeight="1" spans="1:12">
+      <c r="E9" s="106"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="69"/>
+    </row>
+    <row r="10" s="54" customFormat="1" ht="33" customHeight="1" spans="1:12">
       <c r="A10" s="70">
         <f>SUM(1+1)</f>
         <v>2</v>
@@ -2997,1245 +2976,1490 @@
       <c r="D10" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="106" t="s">
+      <c r="H10" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="137" t="s">
+      <c r="I10" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="138"/>
-      <c r="K10" s="139" t="s">
+      <c r="J10" s="143"/>
+      <c r="K10" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="138"/>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="1:12">
+      <c r="L10" s="143"/>
+    </row>
+    <row r="11" s="54" customFormat="1" ht="33" customHeight="1" spans="1:12">
       <c r="A11" s="70">
         <f t="shared" ref="A11:A17" si="0">SUM(A10+1)</f>
         <v>3</v>
       </c>
       <c r="B11" s="74"/>
       <c r="C11" s="74"/>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="107" t="s">
+      <c r="F11" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="105" t="s">
+      <c r="G11" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="106" t="s">
+      <c r="H11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="105" t="s">
+      <c r="I11" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="138"/>
-      <c r="K11" s="139" t="s">
+      <c r="J11" s="145"/>
+      <c r="K11" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="138"/>
-    </row>
-    <row r="12" ht="33" customHeight="1" spans="1:12">
+      <c r="L11" s="145"/>
+    </row>
+    <row r="12" s="54" customFormat="1" ht="33" customHeight="1" spans="1:12">
       <c r="A12" s="70">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="74"/>
       <c r="C12" s="74"/>
-      <c r="E12" s="107" t="s">
+      <c r="E12" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="105" t="s">
+      <c r="G12" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="106" t="s">
+      <c r="H12" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="105" t="s">
+      <c r="I12" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="138"/>
-      <c r="K12" s="139" t="s">
+      <c r="J12" s="145"/>
+      <c r="K12" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="138"/>
-    </row>
-    <row r="13" ht="33" customHeight="1" spans="1:12">
+      <c r="L12" s="145"/>
+    </row>
+    <row r="13" s="54" customFormat="1" ht="33" customHeight="1" spans="1:12">
       <c r="A13" s="70">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="74"/>
       <c r="C13" s="74"/>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="107" t="s">
+      <c r="F13" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="105" t="s">
+      <c r="G13" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="106" t="s">
+      <c r="H13" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="105" t="s">
+      <c r="I13" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="138"/>
-      <c r="K13" s="139" t="s">
+      <c r="J13" s="145"/>
+      <c r="K13" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="138"/>
-    </row>
-    <row r="14" ht="33" customHeight="1" spans="1:12">
+      <c r="L13" s="145"/>
+    </row>
+    <row r="14" s="54" customFormat="1" ht="33" customHeight="1" spans="1:12">
       <c r="A14" s="70">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="74"/>
       <c r="C14" s="74"/>
-      <c r="E14" s="105" t="s">
+      <c r="E14" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="105" t="s">
+      <c r="F14" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="105" t="s">
+      <c r="G14" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="106" t="s">
+      <c r="H14" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="105" t="s">
+      <c r="I14" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="138"/>
-      <c r="K14" s="139" t="s">
+      <c r="J14" s="145"/>
+      <c r="K14" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="138"/>
-    </row>
-    <row r="15" ht="33" customHeight="1" spans="1:12">
+      <c r="L14" s="145"/>
+    </row>
+    <row r="15" s="54" customFormat="1" ht="33" customHeight="1" spans="1:12">
       <c r="A15" s="70">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="74"/>
       <c r="C15" s="74"/>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="105" t="s">
+      <c r="F15" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="105" t="s">
+      <c r="G15" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="106" t="s">
+      <c r="H15" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="105" t="s">
+      <c r="I15" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="138"/>
-      <c r="K15" s="139" t="s">
+      <c r="J15" s="145"/>
+      <c r="K15" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="138"/>
-    </row>
-    <row r="16" ht="33" customHeight="1" spans="1:12">
+      <c r="L15" s="145"/>
+    </row>
+    <row r="16" s="54" customFormat="1" ht="33" customHeight="1" spans="1:12">
       <c r="A16" s="70">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="74"/>
       <c r="C16" s="74"/>
-      <c r="E16" s="105" t="s">
+      <c r="E16" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="105" t="s">
+      <c r="F16" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="105" t="s">
+      <c r="G16" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="106" t="s">
+      <c r="H16" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="105" t="s">
+      <c r="I16" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="138"/>
-      <c r="K16" s="139" t="s">
+      <c r="J16" s="145"/>
+      <c r="K16" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="138"/>
-    </row>
-    <row r="17" ht="33" customHeight="1" spans="1:12">
-      <c r="A17" s="75">
+      <c r="L16" s="145"/>
+    </row>
+    <row r="17" s="54" customFormat="1" ht="33" customHeight="1" spans="1:12">
+      <c r="A17" s="70">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="105" t="s">
+      <c r="F17" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="105" t="s">
+      <c r="G17" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="106" t="s">
+      <c r="H17" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="105" t="s">
+      <c r="I17" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="138"/>
-      <c r="K17" s="139" t="s">
+      <c r="J17" s="145"/>
+      <c r="K17" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="138"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="141"/>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="1:12">
-      <c r="A19" s="79">
+      <c r="L17" s="145"/>
+    </row>
+    <row r="18" s="54" customFormat="1" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="149"/>
+    </row>
+    <row r="19" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A19" s="78">
         <v>10</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="72"/>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="105" t="s">
+      <c r="E19" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="105" t="s">
+      <c r="F19" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="110" t="s">
+      <c r="G19" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="111" t="s">
+      <c r="H19" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="142" t="s">
+      <c r="I19" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="110"/>
-      <c r="K19" s="139" t="s">
+      <c r="J19" s="151"/>
+      <c r="K19" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="143"/>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="1:12">
-      <c r="A20" s="79">
+      <c r="L19" s="152"/>
+    </row>
+    <row r="20" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A20" s="78">
         <f t="shared" ref="A20:A22" si="1">SUM(A19+1)</f>
         <v>11</v>
       </c>
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
       <c r="D20" s="74"/>
-      <c r="E20" s="105" t="s">
+      <c r="E20" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="110" t="s">
+      <c r="G20" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="111" t="s">
+      <c r="H20" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="142" t="s">
+      <c r="I20" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="110"/>
-      <c r="K20" s="139" t="s">
+      <c r="J20" s="151"/>
+      <c r="K20" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="143"/>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:12">
-      <c r="A21" s="79">
+      <c r="L20" s="152"/>
+    </row>
+    <row r="21" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A21" s="78">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
-      <c r="E21" s="105" t="s">
+      <c r="E21" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="110" t="s">
+      <c r="G21" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="111" t="s">
+      <c r="H21" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="142" t="s">
+      <c r="I21" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="110"/>
-      <c r="K21" s="139" t="s">
+      <c r="J21" s="151"/>
+      <c r="K21" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="143"/>
-    </row>
-    <row r="22" ht="30" customHeight="1" spans="1:12">
-      <c r="A22" s="79">
+      <c r="L21" s="152"/>
+    </row>
+    <row r="22" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A22" s="78">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B22" s="74"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="105" t="s">
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="105" t="s">
+      <c r="F22" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="110" t="s">
+      <c r="G22" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="111" t="s">
+      <c r="H22" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="142" t="s">
+      <c r="I22" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="110"/>
-      <c r="K22" s="139" t="s">
+      <c r="J22" s="151"/>
+      <c r="K22" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="143"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="146"/>
-    </row>
-    <row r="24" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A24" s="79">
+      <c r="L22" s="152"/>
+    </row>
+    <row r="23" s="54" customFormat="1" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A23" s="82"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+    </row>
+    <row r="24" s="54" customFormat="1" ht="27.75" customHeight="1" spans="1:12">
+      <c r="A24" s="78">
         <f>SUM(13+1)</f>
         <v>14</v>
       </c>
       <c r="B24" s="71"/>
       <c r="C24" s="72"/>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="105" t="s">
+      <c r="E24" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="105" t="s">
+      <c r="G24" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="106" t="s">
+      <c r="H24" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="147" t="s">
+      <c r="I24" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="J24" s="110"/>
-      <c r="K24" s="139" t="s">
+      <c r="J24" s="151"/>
+      <c r="K24" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="143"/>
-    </row>
-    <row r="25" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A25" s="79">
+      <c r="L24" s="152"/>
+    </row>
+    <row r="25" s="54" customFormat="1" ht="27.75" customHeight="1" spans="1:12">
+      <c r="A25" s="78">
         <f t="shared" ref="A25:A27" si="2">SUM(A24+1)</f>
         <v>15</v>
       </c>
       <c r="B25" s="74"/>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
-      <c r="E25" s="105" t="s">
+      <c r="E25" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="105" t="s">
+      <c r="F25" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="105" t="s">
+      <c r="G25" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="106" t="s">
+      <c r="H25" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="147" t="s">
+      <c r="I25" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="J25" s="110"/>
-      <c r="K25" s="139" t="s">
+      <c r="J25" s="151"/>
+      <c r="K25" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="143"/>
-    </row>
-    <row r="26" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A26" s="79">
+      <c r="L25" s="152"/>
+    </row>
+    <row r="26" s="54" customFormat="1" ht="27.75" customHeight="1" spans="1:12">
+      <c r="A26" s="78">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B26" s="74"/>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
-      <c r="E26" s="105" t="s">
+      <c r="E26" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="105" t="s">
+      <c r="F26" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="105" t="s">
+      <c r="G26" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="106" t="s">
+      <c r="H26" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="147" t="s">
+      <c r="I26" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="J26" s="148" t="s">
+      <c r="J26" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="149" t="s">
+      <c r="K26" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="143"/>
-    </row>
-    <row r="27" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A27" s="79">
+      <c r="L26" s="152"/>
+    </row>
+    <row r="27" s="54" customFormat="1" ht="27.75" customHeight="1" spans="1:12">
+      <c r="A27" s="78">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="105" t="s">
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="105" t="s">
+      <c r="F27" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="105" t="s">
+      <c r="G27" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="106" t="s">
+      <c r="H27" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="147" t="s">
+      <c r="I27" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="110"/>
-      <c r="K27" s="139" t="s">
+      <c r="J27" s="151"/>
+      <c r="K27" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="143"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="151"/>
-    </row>
-    <row r="29" ht="27" customHeight="1" spans="1:12">
-      <c r="A29" s="85">
+      <c r="L27" s="152"/>
+    </row>
+    <row r="28" s="54" customFormat="1" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A28" s="84"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="159"/>
+    </row>
+    <row r="29" s="54" customFormat="1" ht="27" customHeight="1" spans="1:12">
+      <c r="A29" s="86">
         <f>SUM(17+1)</f>
         <v>18</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87" t="s">
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="115" t="s">
+      <c r="E29" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="115" t="s">
+      <c r="F29" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="115" t="s">
+      <c r="G29" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="111" t="s">
+      <c r="H29" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="152" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" s="153"/>
-      <c r="K29" s="139" t="s">
+      <c r="I29" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="160"/>
+      <c r="K29" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="154"/>
-    </row>
-    <row r="30" ht="25.5" customHeight="1" spans="1:12">
-      <c r="A30" s="85">
+      <c r="L29" s="161"/>
+    </row>
+    <row r="30" s="54" customFormat="1" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A30" s="86">
         <f>SUM(A29+1)</f>
         <v>19</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="115" t="s">
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="116" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="115" t="s">
+      <c r="G30" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="111" t="s">
+      <c r="H30" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="152" t="s">
-        <v>85</v>
-      </c>
-      <c r="J30" s="153"/>
-      <c r="K30" s="139" t="s">
+      <c r="I30" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="160"/>
+      <c r="K30" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="154"/>
-    </row>
-    <row r="31" ht="25.5" customHeight="1" spans="1:12">
-      <c r="A31" s="85">
+      <c r="L30" s="161"/>
+    </row>
+    <row r="31" s="54" customFormat="1" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A31" s="86">
         <f>SUM(A30+1)</f>
         <v>20</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="115" t="s">
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="115" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="115" t="s">
+      <c r="G31" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="111" t="s">
+      <c r="H31" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="152" t="s">
-        <v>85</v>
-      </c>
-      <c r="J31" s="153"/>
-      <c r="K31" s="139" t="s">
+      <c r="I31" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="160"/>
+      <c r="K31" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="154"/>
-    </row>
-    <row r="32" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A32" s="85">
+      <c r="L31" s="161"/>
+    </row>
+    <row r="32" s="54" customFormat="1" ht="29.25" customHeight="1" spans="1:12">
+      <c r="A32" s="86">
         <f>SUM(A31+1)</f>
         <v>21</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="115" t="s">
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="115" t="s">
+      <c r="G32" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="111" t="s">
+      <c r="H32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="152" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32" s="153"/>
-      <c r="K32" s="139" t="s">
+      <c r="I32" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="160"/>
+      <c r="K32" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="154"/>
-    </row>
-    <row r="33" ht="30.75" customHeight="1" spans="1:12">
-      <c r="A33" s="85">
+      <c r="L32" s="161"/>
+    </row>
+    <row r="33" s="54" customFormat="1" ht="30.75" customHeight="1" spans="1:12">
+      <c r="A33" s="86">
         <f>SUM(A32+1)</f>
         <v>22</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="115" t="s">
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="115" t="s">
+      <c r="G33" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="115" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" s="111" t="s">
+      <c r="H33" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="152" t="s">
-        <v>85</v>
-      </c>
-      <c r="J33" s="153"/>
-      <c r="K33" s="149" t="s">
+      <c r="I33" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="160"/>
+      <c r="K33" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="L33" s="154"/>
-    </row>
-    <row r="34" ht="30.75" customHeight="1" spans="1:12">
-      <c r="A34" s="85">
+      <c r="L33" s="161"/>
+    </row>
+    <row r="34" s="54" customFormat="1" ht="30.75" customHeight="1" spans="1:12">
+      <c r="A34" s="86">
         <f>SUM(A33+1)</f>
         <v>23</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="115" t="s">
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="115" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="115" t="s">
+      <c r="G34" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="111" t="s">
+      <c r="H34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="152" t="s">
-        <v>85</v>
-      </c>
-      <c r="J34" s="153"/>
-      <c r="K34" s="139" t="s">
+      <c r="I34" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="160"/>
+      <c r="K34" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="154"/>
-    </row>
-    <row r="35" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="156"/>
-    </row>
-    <row r="36" ht="30" customHeight="1" spans="1:12">
-      <c r="A36" s="92">
+      <c r="L34" s="161"/>
+    </row>
+    <row r="35" s="54" customFormat="1" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="163"/>
+    </row>
+    <row r="36" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A36" s="93">
         <f>SUM(23+1)</f>
         <v>24</v>
       </c>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="93" t="s">
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="116" t="s">
+      <c r="F36" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="157" t="s">
-        <v>99</v>
-      </c>
-      <c r="J36" s="92"/>
-      <c r="K36" s="139" t="s">
+      <c r="J36" s="93"/>
+      <c r="K36" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L36" s="92"/>
-    </row>
-    <row r="37" ht="30" customHeight="1" spans="1:12">
-      <c r="A37" s="92">
+      <c r="L36" s="93"/>
+    </row>
+    <row r="37" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A37" s="93">
         <f>SUM(A36+1)</f>
         <v>25</v>
       </c>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="116" t="s">
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="G37" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="158" t="s">
-        <v>101</v>
-      </c>
-      <c r="J37" s="92"/>
-      <c r="K37" s="139" t="s">
+      <c r="J37" s="93"/>
+      <c r="K37" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L37" s="92"/>
-    </row>
-    <row r="38" ht="30" customHeight="1" spans="1:12">
-      <c r="A38" s="92">
+      <c r="L37" s="93"/>
+    </row>
+    <row r="38" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A38" s="93">
         <f>SUM(A37+1)</f>
         <v>26</v>
       </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="116" t="s">
+      <c r="B38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="116" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="116" t="s">
+      <c r="G38" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="118" t="s">
+      <c r="H38" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="158" t="s">
+      <c r="I38" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" s="93"/>
+      <c r="K38" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="93"/>
+    </row>
+    <row r="39" s="54" customFormat="1" ht="14" customHeight="1" spans="1:12">
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="97"/>
+    </row>
+    <row r="40" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A40" s="93">
+        <v>27</v>
+      </c>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="J38" s="92"/>
-      <c r="K38" s="139" t="s">
+      <c r="F40" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="J40" s="93"/>
+      <c r="K40" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="92"/>
-    </row>
-    <row r="39" ht="14" customHeight="1" spans="1:12">
-      <c r="A39" s="96"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-    </row>
-    <row r="40" ht="30" customHeight="1" spans="1:12">
-      <c r="A40" s="92">
-        <v>27</v>
-      </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="116" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="116" t="s">
-        <v>105</v>
-      </c>
-      <c r="J40" s="92"/>
-      <c r="K40" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="L40" s="92"/>
-    </row>
-    <row r="41" ht="30" customHeight="1" spans="1:12">
-      <c r="A41" s="92">
+      <c r="L40" s="93"/>
+    </row>
+    <row r="41" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A41" s="93">
         <f>SUM(A40+1)</f>
         <v>28</v>
       </c>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" s="116" t="s">
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="118" t="s">
+      <c r="H41" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="J41" s="159"/>
-      <c r="K41" s="139" t="s">
+      <c r="I41" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="J41" s="166"/>
+      <c r="K41" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L41" s="92"/>
-    </row>
-    <row r="42" ht="30" customHeight="1" spans="1:12">
-      <c r="A42" s="92">
+      <c r="L41" s="93"/>
+    </row>
+    <row r="42" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A42" s="93">
         <f>SUM(A41+1)</f>
         <v>29</v>
       </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="116" t="s">
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="J42" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="116" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="116" t="s">
-        <v>105</v>
-      </c>
-      <c r="J42" s="159" t="s">
-        <v>110</v>
-      </c>
-      <c r="K42" s="149" t="s">
+      <c r="K42" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="L42" s="92"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:12">
-      <c r="A43" s="96"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-    </row>
-    <row r="44" ht="30" customHeight="1" spans="1:12">
-      <c r="A44" s="92">
+      <c r="L42" s="93"/>
+    </row>
+    <row r="43" s="54" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A43" s="97"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+    </row>
+    <row r="44" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A44" s="93">
         <f>SUM(29+1)</f>
         <v>30</v>
       </c>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="93" t="s">
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="116" t="s">
-        <v>113</v>
-      </c>
-      <c r="J44" s="92"/>
-      <c r="K44" s="139" t="s">
+      <c r="J44" s="93"/>
+      <c r="K44" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L44" s="92"/>
-    </row>
-    <row r="45" ht="30" customHeight="1" spans="1:12">
-      <c r="A45" s="92">
+      <c r="L44" s="93"/>
+    </row>
+    <row r="45" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A45" s="93">
         <f>SUM(A44+1)</f>
         <v>31</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="F45" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="116" t="s">
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="118" t="s">
+      <c r="H45" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I45" s="116" t="s">
-        <v>113</v>
-      </c>
-      <c r="J45" s="92"/>
-      <c r="K45" s="139" t="s">
+      <c r="I45" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="J45" s="93"/>
+      <c r="K45" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L45" s="92"/>
-    </row>
-    <row r="46" ht="30" customHeight="1" spans="1:12">
-      <c r="A46" s="92">
+      <c r="L45" s="93"/>
+    </row>
+    <row r="46" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A46" s="93">
         <f>SUM(A45+1)</f>
         <v>32</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="116" t="s">
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="H46" s="118" t="s">
+      <c r="H46" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I46" s="116" t="s">
-        <v>113</v>
-      </c>
-      <c r="J46" s="92"/>
-      <c r="K46" s="139" t="s">
+      <c r="I46" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="J46" s="93"/>
+      <c r="K46" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L46" s="92"/>
-    </row>
-    <row r="47" ht="30" customHeight="1" spans="1:12">
-      <c r="A47" s="92">
+      <c r="L46" s="93"/>
+    </row>
+    <row r="47" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A47" s="93">
         <f>SUM(A46+1)</f>
         <v>33</v>
       </c>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="116" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="116" t="s">
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="G47" s="116" t="s">
+      <c r="F47" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="118" t="s">
+      <c r="H47" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I47" s="116" t="s">
-        <v>113</v>
-      </c>
-      <c r="J47" s="92"/>
-      <c r="K47" s="139" t="s">
+      <c r="I47" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="J47" s="93"/>
+      <c r="K47" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="92"/>
-    </row>
-    <row r="48" ht="30" customHeight="1" spans="1:12">
-      <c r="A48" s="92">
+      <c r="L47" s="93"/>
+    </row>
+    <row r="48" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A48" s="93">
         <f>SUM(A47+1)</f>
         <v>34</v>
       </c>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" s="116" t="s">
+      <c r="B48" s="96"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="J48" s="93"/>
+      <c r="K48" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="93"/>
+    </row>
+    <row r="49" s="54" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A49" s="97"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="97"/>
+    </row>
+    <row r="50" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A50" s="93">
+        <v>35</v>
+      </c>
+      <c r="B50" s="94"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="G48" s="116" t="s">
+      <c r="F50" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="118" t="s">
+      <c r="H50" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I48" s="116" t="s">
-        <v>113</v>
-      </c>
-      <c r="J48" s="92"/>
-      <c r="K48" s="139" t="s">
+      <c r="I50" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="J50" s="93"/>
+      <c r="K50" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L48" s="92"/>
-    </row>
-    <row r="49" ht="16" customHeight="1" spans="1:12">
-      <c r="A49" s="96"/>
-      <c r="B49" s="96"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="119"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-    </row>
-    <row r="50" ht="30" customHeight="1" spans="1:12">
-      <c r="A50" s="92">
-        <v>35</v>
-      </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="E50" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="I50" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="J50" s="92"/>
-      <c r="K50" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="L50" s="92"/>
-    </row>
-    <row r="51" ht="30" customHeight="1" spans="1:12">
-      <c r="A51" s="92">
+      <c r="L50" s="93"/>
+    </row>
+    <row r="51" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A51" s="93">
         <f>SUM(A50+1)</f>
         <v>36</v>
       </c>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="116" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" s="116" t="s">
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="H51" s="118" t="s">
+      <c r="H51" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I51" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="J51" s="92"/>
-      <c r="K51" s="139" t="s">
+      <c r="I51" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="J51" s="93"/>
+      <c r="K51" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L51" s="92"/>
-    </row>
-    <row r="52" ht="30" customHeight="1" spans="1:12">
-      <c r="A52" s="92">
+      <c r="L51" s="93"/>
+    </row>
+    <row r="52" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A52" s="93">
         <f>SUM(A51+1)</f>
         <v>37</v>
       </c>
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="116" t="s">
+      <c r="B52" s="96"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="J52" s="93"/>
+      <c r="K52" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" s="93"/>
+    </row>
+    <row r="53" s="54" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A53" s="97"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="97"/>
+    </row>
+    <row r="54" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A54" s="93">
+        <v>38</v>
+      </c>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="F52" s="116" t="s">
+      <c r="E54" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="G52" s="116" t="s">
+      <c r="F54" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="H52" s="118" t="s">
+      <c r="H54" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="J52" s="92"/>
-      <c r="K52" s="139" t="s">
+      <c r="I54" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="J54" s="93"/>
+      <c r="K54" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="L52" s="92"/>
-    </row>
-    <row r="53" ht="16" customHeight="1" spans="1:12">
-      <c r="A53" s="96"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="96"/>
-      <c r="K53" s="96"/>
-      <c r="L53" s="96"/>
-    </row>
-    <row r="54" ht="30" customHeight="1" spans="1:12">
-      <c r="A54" s="92"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="92"/>
-      <c r="K54" s="92"/>
-      <c r="L54" s="92"/>
-    </row>
-    <row r="55" ht="30" customHeight="1" spans="1:12">
-      <c r="A55" s="92"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="92"/>
-      <c r="K55" s="92"/>
-      <c r="L55" s="92"/>
-    </row>
-    <row r="56" ht="30" customHeight="1" spans="1:12">
-      <c r="A56" s="92"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="92"/>
-      <c r="K56" s="92"/>
-      <c r="L56" s="92"/>
-    </row>
-    <row r="57" ht="30" customHeight="1" spans="1:12">
-      <c r="A57" s="92"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="92"/>
-      <c r="L57" s="92"/>
-    </row>
-    <row r="58" ht="30" customHeight="1" spans="1:12">
-      <c r="A58" s="92"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92"/>
-      <c r="L58" s="92"/>
-    </row>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
+      <c r="L54" s="93"/>
+    </row>
+    <row r="55" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A55" s="93">
+        <f>SUM(A54+1)</f>
+        <v>39</v>
+      </c>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="I55" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="J55" s="93"/>
+      <c r="K55" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" s="93"/>
+    </row>
+    <row r="56" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A56" s="93">
+        <f>SUM(A55+1)</f>
+        <v>40</v>
+      </c>
+      <c r="B56" s="95"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="J56" s="93"/>
+      <c r="K56" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" s="93"/>
+    </row>
+    <row r="57" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A57" s="93">
+        <f>SUM(A56+1)</f>
+        <v>41</v>
+      </c>
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="J57" s="93"/>
+      <c r="K57" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" s="93"/>
+    </row>
+    <row r="58" s="54" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A58" s="98">
+        <f>SUM(A57+1)</f>
+        <v>42</v>
+      </c>
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="123" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="G58" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="J58" s="98"/>
+      <c r="K58" s="168" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" s="98"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:12">
+      <c r="A59" s="99"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99"/>
+      <c r="J59" s="99"/>
+      <c r="K59" s="99"/>
+      <c r="L59" s="99"/>
+    </row>
+    <row r="60" ht="30" customHeight="1" spans="1:12">
+      <c r="A60" s="100"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="100"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="100"/>
+      <c r="K60" s="100"/>
+      <c r="L60" s="100"/>
+    </row>
+    <row r="61" ht="30" customHeight="1" spans="1:12">
+      <c r="A61" s="100"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="100"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="100"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+    </row>
+    <row r="62" ht="30" customHeight="1" spans="1:12">
+      <c r="A62" s="100"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+    </row>
+    <row r="63" ht="30" customHeight="1" spans="1:12">
+      <c r="A63" s="100"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="100"/>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100"/>
+    </row>
+    <row r="64" ht="30" customHeight="1" spans="1:12">
+      <c r="A64" s="100"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="100"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="100"/>
+      <c r="G64" s="100"/>
+      <c r="H64" s="100"/>
+      <c r="I64" s="100"/>
+      <c r="J64" s="100"/>
+      <c r="K64" s="100"/>
+      <c r="L64" s="100"/>
+    </row>
+    <row r="65" ht="30" customHeight="1" spans="1:12">
+      <c r="A65" s="100"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="100"/>
+      <c r="G65" s="100"/>
+      <c r="H65" s="100"/>
+      <c r="I65" s="100"/>
+      <c r="J65" s="100"/>
+      <c r="K65" s="100"/>
+      <c r="L65" s="100"/>
+    </row>
+    <row r="66" ht="30" customHeight="1" spans="1:12">
+      <c r="A66" s="100"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="100"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="100"/>
+      <c r="I66" s="100"/>
+      <c r="J66" s="100"/>
+      <c r="K66" s="100"/>
+      <c r="L66" s="100"/>
+    </row>
+    <row r="67" ht="30" customHeight="1" spans="1:12">
+      <c r="A67" s="100"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="100"/>
+      <c r="D67" s="100"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="100"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="100"/>
+      <c r="K67" s="100"/>
+      <c r="L67" s="100"/>
+    </row>
+    <row r="68" ht="30" customHeight="1" spans="1:12">
+      <c r="A68" s="100"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="100"/>
+      <c r="I68" s="100"/>
+      <c r="J68" s="100"/>
+      <c r="K68" s="100"/>
+      <c r="L68" s="100"/>
+    </row>
+    <row r="69" ht="30" customHeight="1" spans="1:12">
+      <c r="A69" s="100"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="126"/>
+      <c r="F69" s="100"/>
+      <c r="G69" s="100"/>
+      <c r="H69" s="100"/>
+      <c r="I69" s="100"/>
+      <c r="J69" s="100"/>
+      <c r="K69" s="100"/>
+      <c r="L69" s="100"/>
+    </row>
+    <row r="70" ht="30" customHeight="1" spans="1:12">
+      <c r="A70" s="100"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="126"/>
+      <c r="F70" s="100"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="100"/>
+      <c r="J70" s="100"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="100"/>
+    </row>
+    <row r="71" ht="30" customHeight="1" spans="1:12">
+      <c r="A71" s="100"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="126"/>
+      <c r="F71" s="100"/>
+      <c r="G71" s="100"/>
+      <c r="H71" s="100"/>
+      <c r="I71" s="100"/>
+      <c r="J71" s="100"/>
+      <c r="K71" s="100"/>
+      <c r="L71" s="100"/>
+    </row>
     <row r="72" ht="13.5" customHeight="1"/>
     <row r="73" ht="13.5" customHeight="1"/>
     <row r="74" ht="13.5" customHeight="1"/>
@@ -5136,7 +5360,7 @@
     <row r="969" ht="13.5" customHeight="1"/>
     <row r="970" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="31">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A2:B2"/>
@@ -5145,10 +5369,20 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B54:B58"/>
     <mergeCell ref="C10:C17"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C29:C34"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C54:C58"/>
     <mergeCell ref="D10:D17"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="D24:D27"/>
@@ -5157,9 +5391,10 @@
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="D44:D48"/>
     <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D54:D58"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="K8 K29 K30 K38 K40 K41 K42 K50 K51 K52 K10:K17 K19:K22 K24:K27 K31:K34 K36:K37 K44:K46 K47:K48">
+    <dataValidation type="list" allowBlank="1" sqref="K8 K29 K30 K38 K40 K41 K42 K50 K51 K52 K54 K55 K56 K57 K58 K10:K17 K19:K22 K24:K27 K31:K34 K36:K37 K44:K46 K47:K48">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5198,10 +5433,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
@@ -5236,7 +5471,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="35" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>1</v>
@@ -5247,7 +5482,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="35" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="37"/>
@@ -5256,7 +5491,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="35" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B6" s="39" t="s">
         <v>11</v>
@@ -5267,10 +5502,10 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="35" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B7" s="40">
-        <v>45205</v>
+        <v>45226</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="26"/>
@@ -5278,7 +5513,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="35" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="37"/>
@@ -5315,31 +5550,31 @@
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="44" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="47" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="49" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E14" s="50">
         <v>1</v>
@@ -5347,14 +5582,14 @@
     </row>
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="51" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="49" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E15" s="50">
         <v>8</v>
@@ -5362,14 +5597,14 @@
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="47" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="49" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E16" s="50">
         <v>4</v>
@@ -5377,14 +5612,14 @@
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="47" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E17" s="50">
         <v>4</v>
@@ -5399,14 +5634,14 @@
     </row>
     <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="47" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E19" s="50">
         <v>6</v>
@@ -5414,14 +5649,14 @@
     </row>
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="47" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="49" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E20" s="50">
         <v>3</v>
@@ -5429,14 +5664,14 @@
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="47" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="49" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E21" s="50">
         <v>3</v>
@@ -5444,14 +5679,14 @@
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="47" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="49" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E22" s="50">
         <v>5</v>
@@ -5459,14 +5694,14 @@
     </row>
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="47" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="49" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E23" s="50">
         <v>3</v>
@@ -5474,105 +5709,32 @@
     </row>
     <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="47" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="49" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E24" s="50">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="50">
-        <v>3</v>
-      </c>
-      <c r="E25" s="50">
-        <v>1</v>
-      </c>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5631,7 +5793,7 @@
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5643,7 +5805,7 @@
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -5657,10 +5819,10 @@
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -5668,16 +5830,16 @@
       <c r="G5" s="20"/>
       <c r="H5" s="3"/>
       <c r="I5" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="5"/>
@@ -5687,7 +5849,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="30">
         <f>C14</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J6" s="31" t="s">
         <v>7</v>
@@ -5696,7 +5858,7 @@
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>11</v>
@@ -5717,7 +5879,7 @@
     <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="3"/>
       <c r="B8" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>11</v>
@@ -5738,7 +5900,7 @@
     <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="5"/>
@@ -5757,7 +5919,7 @@
     <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="1"/>
@@ -5775,7 +5937,7 @@
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>7</v>
@@ -5787,10 +5949,10 @@
         <v>13</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -5799,7 +5961,7 @@
       <c r="B13" s="14"/>
       <c r="C13" s="15">
         <f>TestCase!L2</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D13" s="16">
         <f>TestCase!L3</f>
@@ -5815,18 +5977,18 @@
       </c>
       <c r="G13" s="25">
         <f>TestCase!L6</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H13" s="26"/>
     </row>
     <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C14" s="17">
         <f t="shared" ref="C14:G14" si="0">SUM(C13)</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" si="0"/>
@@ -5842,7 +6004,7 @@
       </c>
       <c r="G14" s="27">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1"/>
     </row>
